--- a/results/11-2020/fim_interactive.xlsx
+++ b/results/11-2020/fim_interactive.xlsx
@@ -422,19 +422,19 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.0301973156737349</v>
+        <v>-0.03019731567373379</v>
       </c>
       <c r="F2">
-        <v>-0.4350874079146171</v>
+        <v>-0.4350874079146173</v>
       </c>
       <c r="G2">
-        <v>0.1743286394277914</v>
+        <v>0.2318136940835876</v>
       </c>
       <c r="H2">
-        <v>0.1959327382019484</v>
+        <v>0.1384476835461522</v>
       </c>
       <c r="I2">
-        <v>-0.4004586933034747</v>
+        <v>-0.4004586933034736</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.886918388454525</v>
+        <v>-1.886918388454526</v>
       </c>
       <c r="F3">
-        <v>-0.7355357359278551</v>
+        <v>-0.7355357359278558</v>
       </c>
       <c r="G3">
-        <v>-1.417109040797517</v>
+        <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.1443572750032584</v>
+        <v>0.03883989562439163</v>
       </c>
       <c r="I3">
-        <v>-0.6141666226602664</v>
+        <v>-0.614166622660268</v>
       </c>
     </row>
     <row r="4">
@@ -488,19 +488,19 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3094652848658663</v>
+        <v>-0.3094652848658668</v>
       </c>
       <c r="F4">
-        <v>-0.6022373754700017</v>
+        <v>-0.6022373754700024</v>
       </c>
       <c r="G4">
-        <v>0.4282649627284007</v>
+        <v>0.4707108944060808</v>
       </c>
       <c r="H4">
-        <v>-0.4682870513075125</v>
+        <v>-0.5107329829851925</v>
       </c>
       <c r="I4">
-        <v>-0.2694431962867544</v>
+        <v>-0.269443196286755</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         <v>-1.099670111084927</v>
       </c>
       <c r="F5">
-        <v>-0.8315627750197636</v>
+        <v>-0.8315627750197642</v>
       </c>
       <c r="G5">
-        <v>-0.4919310908151831</v>
+        <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.5229946480911283</v>
+        <v>-0.2606953291135496</v>
       </c>
       <c r="I5">
-        <v>-0.08474437217861565</v>
+        <v>-0.08474437217861612</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2162355418791546</v>
+        <v>-0.2162355418791556</v>
       </c>
       <c r="F6">
-        <v>-0.8780723315711185</v>
+        <v>-0.8780723315711196</v>
       </c>
       <c r="G6">
-        <v>-0.2174007110986757</v>
+        <v>0.03794677656077421</v>
       </c>
       <c r="H6">
-        <v>-0.02371134001018647</v>
+        <v>-0.2790588276696364</v>
       </c>
       <c r="I6">
-        <v>0.02487650922970756</v>
+        <v>0.02487650922970656</v>
       </c>
     </row>
     <row r="7">
@@ -590,13 +590,13 @@
         <v>0.6965505858098224</v>
       </c>
       <c r="F7">
-        <v>-0.2322050880050318</v>
+        <v>-0.2322050880050325</v>
       </c>
       <c r="G7">
-        <v>0.6071382455658475</v>
+        <v>0.4176699769362638</v>
       </c>
       <c r="H7">
-        <v>-0.1548344774092804</v>
+        <v>0.03463379122030326</v>
       </c>
       <c r="I7">
         <v>0.2442468176532554</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.045407526675324</v>
+        <v>1.045407526675323</v>
       </c>
       <c r="F8">
-        <v>0.1065131148802657</v>
+        <v>0.106513114880265</v>
       </c>
       <c r="G8">
-        <v>0.4269529048802224</v>
+        <v>0.3854233068740954</v>
       </c>
       <c r="H8">
-        <v>0.2218869860807692</v>
+        <v>0.2634165840868962</v>
       </c>
       <c r="I8">
-        <v>0.3965676357143323</v>
+        <v>0.3965676357143318</v>
       </c>
     </row>
     <row r="9">
@@ -653,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8419643655441872</v>
+        <v>0.8419643655441874</v>
       </c>
       <c r="F9">
-        <v>0.5919217340375442</v>
+        <v>0.5919217340375438</v>
       </c>
       <c r="G9">
-        <v>-0.3310317054594185</v>
+        <v>-0.3246051547334287</v>
       </c>
       <c r="H9">
-        <v>-0.3383335145008904</v>
+        <v>-0.3447600652268802</v>
       </c>
       <c r="I9">
         <v>1.511329585504496</v>
@@ -686,19 +686,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.896823328363197</v>
+        <v>1.896823328363196</v>
       </c>
       <c r="F10">
         <v>1.120186451598132</v>
       </c>
       <c r="G10">
-        <v>0.4667831920459469</v>
+        <v>0.1230989010896827</v>
       </c>
       <c r="H10">
-        <v>0.1898815753046091</v>
+        <v>0.5335658662608733</v>
       </c>
       <c r="I10">
-        <v>1.240158561012641</v>
+        <v>1.24015856101264</v>
       </c>
     </row>
     <row r="11">
@@ -725,10 +725,10 @@
         <v>1.512496855814967</v>
       </c>
       <c r="G11">
-        <v>1.049680143747881</v>
+        <v>1.052245127335171</v>
       </c>
       <c r="H11">
-        <v>-0.2940141605228076</v>
+        <v>-0.2965791441100969</v>
       </c>
       <c r="I11">
         <v>1.510126219452088</v>
@@ -758,13 +758,13 @@
         <v>1.72452138505247</v>
       </c>
       <c r="G12">
-        <v>0.2570517267989404</v>
+        <v>0.3185676646894323</v>
       </c>
       <c r="H12">
-        <v>-0.1980832680058238</v>
+        <v>-0.2595992058963156</v>
       </c>
       <c r="I12">
-        <v>1.83453718483222</v>
+        <v>1.834537184832221</v>
       </c>
     </row>
     <row r="13">
@@ -788,16 +788,16 @@
         <v>1.415055062552841</v>
       </c>
       <c r="F13">
-        <v>1.867794059304633</v>
+        <v>1.867794059304634</v>
       </c>
       <c r="G13">
-        <v>0.07520069290482989</v>
+        <v>-0.08532620047935681</v>
       </c>
       <c r="H13">
-        <v>-0.1843917419515624</v>
+        <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.524246111599573</v>
+        <v>1.524246111599574</v>
       </c>
     </row>
     <row r="14">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.271310149807467</v>
+        <v>1.271310149807468</v>
       </c>
       <c r="F14">
-        <v>1.711415764665701</v>
+        <v>1.711415764665702</v>
       </c>
       <c r="G14">
-        <v>0.3411086127580752</v>
+        <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2528969465227389</v>
+        <v>-0.2574736546801012</v>
       </c>
       <c r="I14">
-        <v>1.183098483572131</v>
+        <v>1.183098483572132</v>
       </c>
     </row>
     <row r="15">
@@ -851,19 +851,19 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7767005046887732</v>
+        <v>0.7767005046887712</v>
       </c>
       <c r="F15">
         <v>1.339142840168604</v>
       </c>
       <c r="G15">
-        <v>-0.116530367991746</v>
+        <v>0.0406776650144408</v>
       </c>
       <c r="H15">
-        <v>-0.3047403093575179</v>
+        <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.197971182038037</v>
+        <v>1.197971182038035</v>
       </c>
     </row>
     <row r="16">
@@ -884,16 +884,16 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.325037655278389</v>
+        <v>1.32503765527839</v>
       </c>
       <c r="F16">
         <v>1.197025843081867</v>
       </c>
       <c r="G16">
-        <v>1.75702279865995</v>
+        <v>1.665594538201976</v>
       </c>
       <c r="H16">
-        <v>-1.526329075036884</v>
+        <v>-1.43490081457891</v>
       </c>
       <c r="I16">
         <v>1.094343931655323</v>
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.519779127262337</v>
+        <v>0.5197791272623342</v>
       </c>
       <c r="F17">
-        <v>0.9732068592592411</v>
+        <v>0.9732068592592401</v>
       </c>
       <c r="G17">
-        <v>-0.2402570822502153</v>
+        <v>-0.7323423591140147</v>
       </c>
       <c r="H17">
-        <v>-0.09222874926885571</v>
+        <v>0.3998565275949437</v>
       </c>
       <c r="I17">
-        <v>0.8522649587814081</v>
+        <v>0.8522649587814052</v>
       </c>
     </row>
     <row r="18">
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.668068001617887</v>
+        <v>0.6680680016178872</v>
       </c>
       <c r="F18">
-        <v>0.8223963222118461</v>
+        <v>0.8223963222118449</v>
       </c>
       <c r="G18">
-        <v>0.286609846233455</v>
+        <v>0.5092651698143085</v>
       </c>
       <c r="H18">
-        <v>-0.3243338075920826</v>
+        <v>-0.546989131172936</v>
       </c>
       <c r="I18">
         <v>0.7057919629765147</v>
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.111108504238281</v>
+        <v>0.1111085042382836</v>
       </c>
       <c r="F19">
-        <v>0.6559983220992232</v>
+        <v>0.655998322099223</v>
       </c>
       <c r="G19">
-        <v>-0.2792950832377376</v>
+        <v>-0.4041200882597879</v>
       </c>
       <c r="H19">
-        <v>0.1087444925073918</v>
+        <v>0.2335694975294421</v>
       </c>
       <c r="I19">
-        <v>0.2816590949686268</v>
+        <v>0.2816590949686295</v>
       </c>
     </row>
     <row r="20">
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1221173408662013</v>
+        <v>-0.1221173408662022</v>
       </c>
       <c r="F20">
-        <v>0.2942095730630755</v>
+        <v>0.2942095730630751</v>
       </c>
       <c r="G20">
-        <v>-0.2368611631781869</v>
+        <v>-0.2813714609987537</v>
       </c>
       <c r="H20">
-        <v>-0.08018423422003418</v>
+        <v>-0.03567393639946731</v>
       </c>
       <c r="I20">
-        <v>0.1949280565320197</v>
+        <v>0.1949280565320188</v>
       </c>
     </row>
     <row r="21">
@@ -1049,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.537236255478833</v>
+        <v>-0.5372362554788321</v>
       </c>
       <c r="F21">
-        <v>0.02995572737778304</v>
+        <v>0.02995572737778351</v>
       </c>
       <c r="G21">
-        <v>-0.09434222425994124</v>
+        <v>0.3398770253391277</v>
       </c>
       <c r="H21">
-        <v>-0.2972223565920764</v>
+        <v>-0.7314416061911453</v>
       </c>
       <c r="I21">
-        <v>-0.1456716746268154</v>
+        <v>-0.1456716746268146</v>
       </c>
     </row>
     <row r="22">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.7200914007569256</v>
+        <v>-0.7200914007569272</v>
       </c>
       <c r="F22">
         <v>-0.3170841232159201</v>
       </c>
       <c r="G22">
-        <v>-0.354228921005131</v>
+        <v>-0.3550314415416719</v>
       </c>
       <c r="H22">
-        <v>-0.2315469582366401</v>
+        <v>-0.2307444377000993</v>
       </c>
       <c r="I22">
-        <v>-0.1343155215151545</v>
+        <v>-0.1343155215151561</v>
       </c>
     </row>
     <row r="23">
@@ -1115,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6324808434686369</v>
+        <v>-0.6324808434686376</v>
       </c>
       <c r="F23">
-        <v>-0.5029814601426496</v>
+        <v>-0.5029814601426504</v>
       </c>
       <c r="G23">
-        <v>0.1433313278220677</v>
+        <v>0.02168388493087975</v>
       </c>
       <c r="H23">
-        <v>-0.2798215857815144</v>
+        <v>-0.1581741428903265</v>
       </c>
       <c r="I23">
-        <v>-0.4959905855091901</v>
+        <v>-0.4959905855091909</v>
       </c>
     </row>
     <row r="24">
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.026250520745382</v>
+        <v>-1.026250520745383</v>
       </c>
       <c r="F24">
-        <v>-0.7290147551124448</v>
+        <v>-0.7290147551124457</v>
       </c>
       <c r="G24">
-        <v>-0.3133365219176708</v>
+        <v>-0.2701579859382385</v>
       </c>
       <c r="H24">
-        <v>-0.2333033524291203</v>
+        <v>-0.2764818884085525</v>
       </c>
       <c r="I24">
-        <v>-0.4796106463985914</v>
+        <v>-0.4796106463985922</v>
       </c>
     </row>
     <row r="25">
@@ -1184,13 +1184,13 @@
         <v>-0.7460708966706079</v>
       </c>
       <c r="F25">
-        <v>-0.7812234154103885</v>
+        <v>-0.7812234154103896</v>
       </c>
       <c r="G25">
-        <v>-0.4176496452310299</v>
+        <v>-0.1071728628412014</v>
       </c>
       <c r="H25">
-        <v>0.1855587821232748</v>
+        <v>-0.1249180002665537</v>
       </c>
       <c r="I25">
         <v>-0.5139800335628528</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8593238854567973</v>
+        <v>-0.8593238854567965</v>
       </c>
       <c r="F26">
-        <v>-0.8160315365853565</v>
+        <v>-0.816031536585357</v>
       </c>
       <c r="G26">
-        <v>-0.3035828970078438</v>
+        <v>-0.2767950136222138</v>
       </c>
       <c r="H26">
-        <v>-0.1034767111838284</v>
+        <v>-0.1302645945694583</v>
       </c>
       <c r="I26">
-        <v>-0.4522642772651251</v>
+        <v>-0.4522642772651244</v>
       </c>
     </row>
     <row r="27">
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08656581830113064</v>
+        <v>-0.0865658183011313</v>
       </c>
       <c r="F27">
-        <v>-0.67955278029348</v>
+        <v>-0.6795527802934803</v>
       </c>
       <c r="G27">
-        <v>0.4051786280982787</v>
+        <v>0.6877869103813896</v>
       </c>
       <c r="H27">
-        <v>0.1142421170401921</v>
+        <v>-0.1683661652429188</v>
       </c>
       <c r="I27">
-        <v>-0.6059865634396014</v>
+        <v>-0.6059865634396022</v>
       </c>
     </row>
     <row r="28">
@@ -1286,13 +1286,13 @@
         <v>-0.7036412465708731</v>
       </c>
       <c r="G28">
-        <v>-0.5731296339090648</v>
+        <v>-0.4905032062218124</v>
       </c>
       <c r="H28">
-        <v>0.1158303780884188</v>
+        <v>0.03320395040116637</v>
       </c>
       <c r="I28">
-        <v>-0.6653051300343092</v>
+        <v>-0.6653051300343085</v>
       </c>
     </row>
     <row r="29">
@@ -1313,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8149030378977276</v>
+        <v>-0.8149030378977268</v>
       </c>
       <c r="F29">
-        <v>-0.720849281877653</v>
+        <v>-0.7208492818776528</v>
       </c>
       <c r="G29">
-        <v>-0.4403854858461838</v>
+        <v>-0.6627889888787315</v>
       </c>
       <c r="H29">
-        <v>-0.082852069115847</v>
+        <v>0.1395514339167008</v>
       </c>
       <c r="I29">
-        <v>-0.2916654829356968</v>
+        <v>-0.2916654829356961</v>
       </c>
     </row>
     <row r="30">
@@ -1346,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.07218541959382402</v>
+        <v>-0.07218541959382546</v>
       </c>
       <c r="F30">
-        <v>-0.5240646654119097</v>
+        <v>-0.5240646654119101</v>
       </c>
       <c r="G30">
-        <v>-0.2884054451162221</v>
+        <v>0.04053261560523381</v>
       </c>
       <c r="H30">
-        <v>0.5316678259262768</v>
+        <v>0.202729765204821</v>
       </c>
       <c r="I30">
-        <v>-0.3154478004038788</v>
+        <v>-0.3154478004038803</v>
       </c>
     </row>
     <row r="31">
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.6006588175423173</v>
+        <v>-0.6006588175423151</v>
       </c>
       <c r="F31">
-        <v>-0.6525879152222064</v>
+        <v>-0.652587915222206</v>
       </c>
       <c r="G31">
-        <v>0.08032406354209809</v>
+        <v>-0.4482138378535143</v>
       </c>
       <c r="H31">
-        <v>-0.3371205342589448</v>
+        <v>0.1914173671366676</v>
       </c>
       <c r="I31">
-        <v>-0.3438623468254705</v>
+        <v>-0.3438623468254683</v>
       </c>
     </row>
     <row r="32">
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.06717102114142542</v>
+        <v>0.06717102114142692</v>
       </c>
       <c r="F32">
-        <v>-0.3551440634731112</v>
+        <v>-0.3551440634731107</v>
       </c>
       <c r="G32">
-        <v>0.3261788948701952</v>
+        <v>0.6845768143843559</v>
       </c>
       <c r="H32">
-        <v>0.001842903029057821</v>
+        <v>-0.3565550164851028</v>
       </c>
       <c r="I32">
-        <v>-0.2608507767578276</v>
+        <v>-0.2608507767578262</v>
       </c>
     </row>
     <row r="33">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06038799814625573</v>
+        <v>-0.06038799814625645</v>
       </c>
       <c r="F33">
-        <v>-0.1665153035352432</v>
+        <v>-0.1665153035352431</v>
       </c>
       <c r="G33">
-        <v>-0.07398651123223843</v>
+        <v>-0.08640542978502516</v>
       </c>
       <c r="H33">
-        <v>0.05390688865936979</v>
+        <v>0.06632580721215653</v>
       </c>
       <c r="I33">
-        <v>-0.0403083755733871</v>
+        <v>-0.04030837557338782</v>
       </c>
     </row>
     <row r="34">
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2808439273863743</v>
+        <v>0.2808439273863736</v>
       </c>
       <c r="F34">
-        <v>-0.0782579667901936</v>
+        <v>-0.07825796679019334</v>
       </c>
       <c r="G34">
-        <v>0.08102702624943922</v>
+        <v>0.134181683212793</v>
       </c>
       <c r="H34">
-        <v>0.1611702090860873</v>
+        <v>0.1080155521227334</v>
       </c>
       <c r="I34">
-        <v>0.03864669205084783</v>
+        <v>0.03864669205084713</v>
       </c>
     </row>
     <row r="35">
@@ -1511,19 +1511,19 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.07783243930686226</v>
+        <v>-0.07783243930686368</v>
       </c>
       <c r="F35">
-        <v>0.05244862776867015</v>
+        <v>0.05244862776866951</v>
       </c>
       <c r="G35">
-        <v>0.314116753371319</v>
+        <v>0.3175547462742406</v>
       </c>
       <c r="H35">
-        <v>-0.4977353637286239</v>
+        <v>-0.5011733566315455</v>
       </c>
       <c r="I35">
-        <v>0.1057861710504426</v>
+        <v>0.1057861710504412</v>
       </c>
     </row>
     <row r="36">
@@ -1544,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2.583795592486665</v>
+        <v>2.583795592486664</v>
       </c>
       <c r="F36">
-        <v>0.6816047706049801</v>
+        <v>0.6816047706049787</v>
       </c>
       <c r="G36">
-        <v>0.5168602701452208</v>
+        <v>0.5310600703908137</v>
       </c>
       <c r="H36">
-        <v>-0.1832625962806899</v>
+        <v>-0.1974623965262828</v>
       </c>
       <c r="I36">
-        <v>2.250197918622134</v>
+        <v>2.250197918622133</v>
       </c>
     </row>
     <row r="37">
@@ -1577,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.354967075312305</v>
+        <v>1.354967075312307</v>
       </c>
       <c r="F37">
         <v>1.03544353896962</v>
       </c>
       <c r="G37">
-        <v>-0.06473972963780637</v>
+        <v>-0.002758138597635004</v>
       </c>
       <c r="H37">
-        <v>0.3713250054579429</v>
+        <v>0.3093434144177715</v>
       </c>
       <c r="I37">
-        <v>1.048381799492169</v>
+        <v>1.04838179949217</v>
       </c>
     </row>
     <row r="38">
@@ -1610,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.546684341069176</v>
+        <v>1.546684341069178</v>
       </c>
       <c r="F38">
         <v>1.351903642390321</v>
       </c>
       <c r="G38">
-        <v>0.6893475391488096</v>
+        <v>0.5136971469729917</v>
       </c>
       <c r="H38">
-        <v>-0.4716557489484011</v>
+        <v>-0.2960053567725832</v>
       </c>
       <c r="I38">
-        <v>1.328992550868767</v>
+        <v>1.328992550868769</v>
       </c>
     </row>
     <row r="39">
@@ -1643,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.491945705546649</v>
+        <v>3.491945705546647</v>
       </c>
       <c r="F39">
-        <v>2.244348178603698</v>
+        <v>2.244348178603699</v>
       </c>
       <c r="G39">
-        <v>1.594139837567952</v>
+        <v>0.1830775014705948</v>
       </c>
       <c r="H39">
-        <v>-0.9772233582420389</v>
+        <v>0.4338389778553179</v>
       </c>
       <c r="I39">
-        <v>2.875029226220736</v>
+        <v>2.875029226220735</v>
       </c>
     </row>
     <row r="40">
@@ -1676,19 +1676,19 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.840689464984882</v>
+        <v>2.840689464984884</v>
       </c>
       <c r="F40">
-        <v>2.308571646728252</v>
+        <v>2.308571646728254</v>
       </c>
       <c r="G40">
-        <v>2.077543945887875</v>
+        <v>1.644181498240886</v>
       </c>
       <c r="H40">
-        <v>-1.140848068104847</v>
+        <v>-0.7074856204578588</v>
       </c>
       <c r="I40">
-        <v>1.903993587201854</v>
+        <v>1.903993587201857</v>
       </c>
     </row>
     <row r="41">
@@ -1712,13 +1712,13 @@
         <v>2.793670460295999</v>
       </c>
       <c r="F41">
-        <v>2.668247492974175</v>
+        <v>2.668247492974177</v>
       </c>
       <c r="G41">
-        <v>0.03360594807682363</v>
+        <v>0.4214418425158024</v>
       </c>
       <c r="H41">
-        <v>-0.05822928604225119</v>
+        <v>-0.44606518048123</v>
       </c>
       <c r="I41">
         <v>2.818293798261426</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.389424258125911</v>
+        <v>2.389424258125913</v>
       </c>
       <c r="F42">
-        <v>2.878932472238359</v>
+        <v>2.878932472238361</v>
       </c>
       <c r="G42">
-        <v>0.4845979988347779</v>
+        <v>0.6290059163210516</v>
       </c>
       <c r="H42">
-        <v>-0.5699963271677637</v>
+        <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.474822586458897</v>
+        <v>2.474822586458898</v>
       </c>
     </row>
     <row r="43">
@@ -1775,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.55853274838479</v>
+        <v>1.558532748384792</v>
       </c>
       <c r="F43">
-        <v>2.395579232947894</v>
+        <v>2.395579232947897</v>
       </c>
       <c r="G43">
-        <v>0.6580666105653628</v>
+        <v>0.4901069572014474</v>
       </c>
       <c r="H43">
-        <v>-1.231557517884624</v>
+        <v>-1.063597864520708</v>
       </c>
       <c r="I43">
-        <v>2.132023655704051</v>
+        <v>2.132023655704053</v>
       </c>
     </row>
     <row r="44">
@@ -1808,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.197155146805813</v>
+        <v>1.197155146805809</v>
       </c>
       <c r="F44">
-        <v>1.984695653403127</v>
+        <v>1.984695653403128</v>
       </c>
       <c r="G44">
-        <v>0.3629357418181439</v>
+        <v>0.4203095613777605</v>
       </c>
       <c r="H44">
-        <v>-0.3190249714830934</v>
+        <v>-0.37639879104271</v>
       </c>
       <c r="I44">
-        <v>1.153244376470763</v>
+        <v>1.153244376470759</v>
       </c>
     </row>
     <row r="45">
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.2537911406297905</v>
+        <v>0.2537911406297906</v>
       </c>
       <c r="F45">
-        <v>1.349725823486575</v>
+        <v>1.349725823486576</v>
       </c>
       <c r="G45">
-        <v>0.3217281103194144</v>
+        <v>0.08455124436341505</v>
       </c>
       <c r="H45">
-        <v>-1.163869244352827</v>
+        <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
         <v>1.095932274663203</v>
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2213946766142565</v>
+        <v>0.2213946766142552</v>
       </c>
       <c r="F46">
-        <v>0.807718428108661</v>
+        <v>0.8077184281086618</v>
       </c>
       <c r="G46">
-        <v>-0.4301179829136424</v>
+        <v>-0.7063634794243946</v>
       </c>
       <c r="H46">
-        <v>-0.3645417463103539</v>
+        <v>-0.08829624979960171</v>
       </c>
       <c r="I46">
-        <v>1.016054405838253</v>
+        <v>1.016054405838251</v>
       </c>
     </row>
     <row r="47">
@@ -1907,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.512403547515539</v>
+        <v>-1.512403547515541</v>
       </c>
       <c r="F47">
-        <v>0.03998435413357859</v>
+        <v>0.03998435413357848</v>
       </c>
       <c r="G47">
-        <v>-1.290592185633025</v>
+        <v>-0.7791842320308732</v>
       </c>
       <c r="H47">
-        <v>-0.009319673892661418</v>
+        <v>-0.5207276274948131</v>
       </c>
       <c r="I47">
-        <v>-0.2124916879898528</v>
+        <v>-0.2124916879898548</v>
       </c>
     </row>
     <row r="48">
@@ -1940,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.329008622253417</v>
+        <v>-1.329008622253414</v>
       </c>
       <c r="F48">
-        <v>-0.5915565881312289</v>
+        <v>-0.5915565881312274</v>
       </c>
       <c r="G48">
-        <v>-0.4342612224775001</v>
+        <v>-0.1791826590862452</v>
       </c>
       <c r="H48">
-        <v>-0.4135894254409594</v>
+        <v>-0.6686679888322142</v>
       </c>
       <c r="I48">
-        <v>-0.4811579743349573</v>
+        <v>-0.4811579743349546</v>
       </c>
     </row>
     <row r="49">
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.147976703534926</v>
+        <v>-2.147976703534925</v>
       </c>
       <c r="F49">
-        <v>-1.191998549172408</v>
+        <v>-1.191998549172406</v>
       </c>
       <c r="G49">
-        <v>-2.482048414043194</v>
+        <v>-1.410076980392139</v>
       </c>
       <c r="H49">
-        <v>1.020447248806644</v>
+        <v>-0.05152418484441068</v>
       </c>
       <c r="I49">
-        <v>-0.6863755382983762</v>
+        <v>-0.6863755382983755</v>
       </c>
     </row>
     <row r="50">
@@ -2009,13 +2009,13 @@
         <v>-1.097164219896707</v>
       </c>
       <c r="F50">
-        <v>-1.521638273300149</v>
+        <v>-1.521638273300147</v>
       </c>
       <c r="G50">
-        <v>-0.1717916821740831</v>
+        <v>-0.2105533183890023</v>
       </c>
       <c r="H50">
-        <v>-0.1791952410126122</v>
+        <v>-0.1404336047976929</v>
       </c>
       <c r="I50">
         <v>-0.7461772967100115</v>
@@ -2039,19 +2039,19 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.474176269031964</v>
+        <v>-1.474176269031961</v>
       </c>
       <c r="F51">
-        <v>-1.512081453679255</v>
+        <v>-1.512081453679252</v>
       </c>
       <c r="G51">
-        <v>-0.3180207284257634</v>
+        <v>-0.3909270564522251</v>
       </c>
       <c r="H51">
-        <v>-0.3289264061312071</v>
+        <v>-0.2560200781047454</v>
       </c>
       <c r="I51">
-        <v>-0.8272291344749938</v>
+        <v>-0.8272291344749906</v>
       </c>
     </row>
     <row r="52">
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.270989307518339</v>
+        <v>-1.270989307518341</v>
       </c>
       <c r="F52">
-        <v>-1.497576624995486</v>
+        <v>-1.497576624995483</v>
       </c>
       <c r="G52">
-        <v>-0.2555011342392</v>
+        <v>-0.6442132037942119</v>
       </c>
       <c r="H52">
-        <v>-0.455113063631259</v>
+        <v>-0.06640099407624728</v>
       </c>
       <c r="I52">
-        <v>-0.5603751096478804</v>
+        <v>-0.5603751096478817</v>
       </c>
     </row>
     <row r="53">
@@ -2108,13 +2108,13 @@
         <v>-0.850115433964387</v>
       </c>
       <c r="F53">
-        <v>-1.173111307602851</v>
+        <v>-1.173111307602849</v>
       </c>
       <c r="G53">
-        <v>-0.4271255494308367</v>
+        <v>-0.07052941796100387</v>
       </c>
       <c r="H53">
-        <v>0.001119773954048608</v>
+        <v>-0.3554763575157842</v>
       </c>
       <c r="I53">
         <v>-0.4241096584875989</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.577666199735684</v>
+        <v>-1.577666199735682</v>
       </c>
       <c r="F54">
-        <v>-1.293236802562595</v>
+        <v>-1.293236802562593</v>
       </c>
       <c r="G54">
-        <v>-0.7783775454409716</v>
+        <v>-0.8865916234440627</v>
       </c>
       <c r="H54">
-        <v>-0.2914504831101449</v>
+        <v>-0.1832364051070537</v>
       </c>
       <c r="I54">
-        <v>-0.5078381711845673</v>
+        <v>-0.5078381711845661</v>
       </c>
     </row>
     <row r="55">
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.807283111565523</v>
+        <v>-1.807283111565521</v>
       </c>
       <c r="F55">
-        <v>-1.376513513195984</v>
+        <v>-1.376513513195983</v>
       </c>
       <c r="G55">
-        <v>-1.179505110082348</v>
+        <v>-1.047790882965999</v>
       </c>
       <c r="H55">
-        <v>0.1812511873214944</v>
+        <v>0.04953696020514492</v>
       </c>
       <c r="I55">
-        <v>-0.8090291888046688</v>
+        <v>-0.8090291888046676</v>
       </c>
     </row>
     <row r="56">
@@ -2204,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.296894900430044</v>
+        <v>-1.296894900430045</v>
       </c>
       <c r="F56">
-        <v>-1.382989911423911</v>
+        <v>-1.382989911423909</v>
       </c>
       <c r="G56">
-        <v>-0.1060223784321607</v>
+        <v>-0.3471829962638515</v>
       </c>
       <c r="H56">
-        <v>-0.3377649070276527</v>
+        <v>-0.0966042891959619</v>
       </c>
       <c r="I56">
-        <v>-0.8531076149702307</v>
+        <v>-0.8531076149702318</v>
       </c>
     </row>
     <row r="57">
@@ -2237,19 +2237,19 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.147544433772517</v>
+        <v>-1.147544433772516</v>
       </c>
       <c r="F57">
-        <v>-1.457347161375943</v>
+        <v>-1.457347161375941</v>
       </c>
       <c r="G57">
-        <v>-0.7339913447596539</v>
+        <v>-0.6132388212289077</v>
       </c>
       <c r="H57">
-        <v>0.01788900427050041</v>
+        <v>-0.1028635192602457</v>
       </c>
       <c r="I57">
-        <v>-0.4314420932833635</v>
+        <v>-0.4314420932833621</v>
       </c>
     </row>
     <row r="58">
@@ -2273,13 +2273,13 @@
         <v>-1.391699613015229</v>
       </c>
       <c r="F58">
-        <v>-1.410855514695829</v>
+        <v>-1.410855514695827</v>
       </c>
       <c r="G58">
-        <v>-0.9610588632034938</v>
+        <v>-0.9172888700772799</v>
       </c>
       <c r="H58">
-        <v>0.05917737106952187</v>
+        <v>0.01540737794330799</v>
       </c>
       <c r="I58">
         <v>-0.4898181208812569</v>
@@ -2303,19 +2303,19 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.281009764487658</v>
+        <v>-1.281009764487659</v>
       </c>
       <c r="F59">
-        <v>-1.279287177926363</v>
+        <v>-1.279287177926362</v>
       </c>
       <c r="G59">
-        <v>0.1673511113757621</v>
+        <v>-0.2587432465973415</v>
       </c>
       <c r="H59">
-        <v>-0.7890024496749073</v>
+        <v>-0.3629080917018036</v>
       </c>
       <c r="I59">
-        <v>-0.6593584261885128</v>
+        <v>-0.6593584261885134</v>
       </c>
     </row>
     <row r="60">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7256627824444662</v>
+        <v>-0.7256627824444626</v>
       </c>
       <c r="F60">
-        <v>-1.136479148429969</v>
+        <v>-1.136479148429966</v>
       </c>
       <c r="G60">
-        <v>0.2345572910757722</v>
+        <v>-0.09302646274323333</v>
       </c>
       <c r="H60">
-        <v>-0.4574747876149671</v>
+        <v>-0.1298910337959616</v>
       </c>
       <c r="I60">
-        <v>-0.5027452859052713</v>
+        <v>-0.5027452859052677</v>
       </c>
     </row>
     <row r="61">
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.2214156928532106</v>
+        <v>-0.2214156928532118</v>
       </c>
       <c r="F61">
-        <v>-0.9049469632001425</v>
+        <v>-0.9049469632001401</v>
       </c>
       <c r="G61">
-        <v>0.5284396237065569</v>
+        <v>0.03469619020211948</v>
       </c>
       <c r="H61">
-        <v>-0.3556249839539183</v>
+        <v>0.1381184495505191</v>
       </c>
       <c r="I61">
-        <v>-0.3942303326058492</v>
+        <v>-0.3942303326058504</v>
       </c>
     </row>
     <row r="62">
@@ -2405,13 +2405,13 @@
         <v>-0.6018255286253917</v>
       </c>
       <c r="F62">
-        <v>-0.7074784421026832</v>
+        <v>-0.7074784421026807</v>
       </c>
       <c r="G62">
-        <v>-0.7998218326423571</v>
+        <v>-0.8456653475137065</v>
       </c>
       <c r="H62">
-        <v>0.4519125248281585</v>
+        <v>0.4977560396995079</v>
       </c>
       <c r="I62">
         <v>-0.2539162208111932</v>
@@ -2435,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07567012183325031</v>
+        <v>0.07567012183324916</v>
       </c>
       <c r="F63">
-        <v>-0.3683084705224561</v>
+        <v>-0.3683084705224539</v>
       </c>
       <c r="G63">
-        <v>0.4638598756655173</v>
+        <v>0.0488266565076218</v>
       </c>
       <c r="H63">
-        <v>-0.4070882279280646</v>
+        <v>0.00794499122983091</v>
       </c>
       <c r="I63">
-        <v>0.01889847409579756</v>
+        <v>0.01889847409579645</v>
       </c>
     </row>
     <row r="64">
@@ -2468,19 +2468,19 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.2955907407600904</v>
+        <v>0.2955907407600892</v>
       </c>
       <c r="F64">
-        <v>-0.112995089721317</v>
+        <v>-0.1129950897213159</v>
       </c>
       <c r="G64">
-        <v>-0.1322437700437326</v>
+        <v>-0.07135988355089964</v>
       </c>
       <c r="H64">
-        <v>0.4305159871690014</v>
+        <v>0.3696321006761685</v>
       </c>
       <c r="I64">
-        <v>-0.00268147636517846</v>
+        <v>-0.002681476365179605</v>
       </c>
     </row>
     <row r="65">
@@ -2504,13 +2504,13 @@
         <v>0.03570034961818545</v>
       </c>
       <c r="F65">
-        <v>-0.04871607910346795</v>
+        <v>-0.04871607910346658</v>
       </c>
       <c r="G65">
-        <v>-0.09137153200886633</v>
+        <v>-0.04123200610439566</v>
       </c>
       <c r="H65">
-        <v>0.1068756109715456</v>
+        <v>0.05673608506707493</v>
       </c>
       <c r="I65">
         <v>0.02019627065550618</v>
@@ -2534,19 +2534,19 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1038810534372324</v>
+        <v>-0.1038810534372335</v>
       </c>
       <c r="F66">
-        <v>0.07577003969357188</v>
+        <v>0.07577003969357297</v>
       </c>
       <c r="G66">
-        <v>0.4189975841590008</v>
+        <v>0.1305714754136182</v>
       </c>
       <c r="H66">
-        <v>-0.4624177595199218</v>
+        <v>-0.1739916507745391</v>
       </c>
       <c r="I66">
-        <v>-0.06046087807631146</v>
+        <v>-0.06046087807631256</v>
       </c>
     </row>
     <row r="67">
@@ -2567,16 +2567,16 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3150678201718904</v>
+        <v>0.3150678201718903</v>
       </c>
       <c r="F67">
-        <v>0.1356194642782319</v>
+        <v>0.1356194642782332</v>
       </c>
       <c r="G67">
-        <v>-0.1294776262718526</v>
+        <v>-0.009520454394792793</v>
       </c>
       <c r="H67">
-        <v>0.4818270841889017</v>
+        <v>0.3618699123118419</v>
       </c>
       <c r="I67">
         <v>-0.03728163774515877</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4750874140947117</v>
+        <v>-0.4750874140947094</v>
       </c>
       <c r="F68">
-        <v>-0.05705007443546861</v>
+        <v>-0.05705007443546643</v>
       </c>
       <c r="G68">
-        <v>-0.1771022445143513</v>
+        <v>-0.2028730263807215</v>
       </c>
       <c r="H68">
-        <v>-0.2237848417004576</v>
+        <v>-0.1980140598340873</v>
       </c>
       <c r="I68">
-        <v>-0.07420032787990281</v>
+        <v>-0.07420032787990059</v>
       </c>
     </row>
     <row r="69">
@@ -2633,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09131664228255593</v>
+        <v>-0.09131664228255486</v>
       </c>
       <c r="F69">
-        <v>-0.08880432241065396</v>
+        <v>-0.08880432241065152</v>
       </c>
       <c r="G69">
-        <v>0.1605813349989212</v>
+        <v>-0.05943276617148831</v>
       </c>
       <c r="H69">
-        <v>-0.1146050260107713</v>
+        <v>0.1054090751596382</v>
       </c>
       <c r="I69">
-        <v>-0.1372929512707058</v>
+        <v>-0.1372929512707047</v>
       </c>
     </row>
     <row r="70">
@@ -2666,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1995224324732995</v>
+        <v>-0.1995224324732985</v>
       </c>
       <c r="F70">
-        <v>-0.1127146671696707</v>
+        <v>-0.1127146671696677</v>
       </c>
       <c r="G70">
-        <v>-0.01144993790299047</v>
+        <v>-0.1469082386613492</v>
       </c>
       <c r="H70">
-        <v>-0.08305788859239972</v>
+        <v>0.05240041216595906</v>
       </c>
       <c r="I70">
-        <v>-0.1050146059779094</v>
+        <v>-0.1050146059779083</v>
       </c>
     </row>
     <row r="71">
@@ -2699,19 +2699,19 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2124933417058218</v>
+        <v>-0.212493341705824</v>
       </c>
       <c r="F71">
-        <v>-0.2446049576390988</v>
+        <v>-0.2446049576390963</v>
       </c>
       <c r="G71">
-        <v>-0.6394960957894104</v>
+        <v>-0.2842812308453224</v>
       </c>
       <c r="H71">
-        <v>0.3662404479286187</v>
+        <v>0.01102558298453079</v>
       </c>
       <c r="I71">
-        <v>0.06076230615496983</v>
+        <v>0.06076230615496768</v>
       </c>
     </row>
     <row r="72">
@@ -2732,19 +2732,19 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.06999808627090098</v>
+        <v>0.06999808627089675</v>
       </c>
       <c r="F72">
-        <v>-0.1083335825476956</v>
+        <v>-0.1083335825476948</v>
       </c>
       <c r="G72">
-        <v>-0.4004341217725897</v>
+        <v>0.1101517719974749</v>
       </c>
       <c r="H72">
-        <v>0.3876720798290918</v>
+        <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08276012821439893</v>
+        <v>0.08276012821439467</v>
       </c>
     </row>
     <row r="73">
@@ -2768,13 +2768,13 @@
         <v>-0.2322422349336884</v>
       </c>
       <c r="F73">
-        <v>-0.1435649807104787</v>
+        <v>-0.1435649807104781</v>
       </c>
       <c r="G73">
-        <v>0.01996843340862331</v>
+        <v>-0.3642509696606954</v>
       </c>
       <c r="H73">
-        <v>-0.2756000615749862</v>
+        <v>0.1086193414943325</v>
       </c>
       <c r="I73">
         <v>0.02338939323267457</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03573077816420434</v>
+        <v>0.03573077816420328</v>
       </c>
       <c r="F74">
-        <v>-0.08475167805110277</v>
+        <v>-0.08475167805110267</v>
       </c>
       <c r="G74">
-        <v>0.2143447422167435</v>
+        <v>0.2237569875946429</v>
       </c>
       <c r="H74">
-        <v>-0.01771226396712674</v>
+        <v>-0.02712450934502616</v>
       </c>
       <c r="I74">
-        <v>-0.1609017000854124</v>
+        <v>-0.1609017000854134</v>
       </c>
     </row>
     <row r="75">
@@ -2831,19 +2831,19 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.01710185813511347</v>
+        <v>0.01710185813511553</v>
       </c>
       <c r="F75">
-        <v>-0.02735287809086894</v>
+        <v>-0.0273528780908678</v>
       </c>
       <c r="G75">
-        <v>-0.009406648181136543</v>
+        <v>-0.01311419685234618</v>
       </c>
       <c r="H75">
-        <v>-0.04207515758740355</v>
+        <v>-0.03836760891619392</v>
       </c>
       <c r="I75">
-        <v>0.06858366390365357</v>
+        <v>0.06858366390365563</v>
       </c>
     </row>
     <row r="76">
@@ -2864,19 +2864,19 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4267561736687195</v>
+        <v>0.4267561736687215</v>
       </c>
       <c r="F76">
-        <v>0.06183664375858569</v>
+        <v>0.0618366437585884</v>
       </c>
       <c r="G76">
-        <v>-0.1487830137347019</v>
+        <v>0.007741184328022455</v>
       </c>
       <c r="H76">
-        <v>0.3385548399268041</v>
+        <v>0.1820306418640798</v>
       </c>
       <c r="I76">
-        <v>0.2369843474766172</v>
+        <v>0.2369843474766193</v>
       </c>
     </row>
     <row r="77">
@@ -2900,13 +2900,13 @@
         <v>0.1609137213607248</v>
       </c>
       <c r="F77">
-        <v>0.160125632832189</v>
+        <v>0.1601256328321917</v>
       </c>
       <c r="G77">
-        <v>0.1873374336061686</v>
+        <v>0.1832164717785813</v>
       </c>
       <c r="H77">
-        <v>-0.06964884868718382</v>
+        <v>-0.0655278868595966</v>
       </c>
       <c r="I77">
         <v>0.04322513644174007</v>
@@ -2933,13 +2933,13 @@
         <v>-0.4160248471714142</v>
       </c>
       <c r="F78">
-        <v>0.04718672649828434</v>
+        <v>0.04718672649828733</v>
       </c>
       <c r="G78">
-        <v>-0.166406556291452</v>
+        <v>-0.03196292316399491</v>
       </c>
       <c r="H78">
-        <v>-0.3128533800933186</v>
+        <v>-0.4472970132207758</v>
       </c>
       <c r="I78">
         <v>0.06323508921335651</v>
@@ -2963,19 +2963,19 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.210032098634459</v>
+        <v>0.21003209863446</v>
       </c>
       <c r="F79">
-        <v>0.09541928662312071</v>
+        <v>0.09541928662312343</v>
       </c>
       <c r="G79">
-        <v>0.1505743433155476</v>
+        <v>-0.1261415442716636</v>
       </c>
       <c r="H79">
-        <v>-0.04178406947945221</v>
+        <v>0.234931818107759</v>
       </c>
       <c r="I79">
-        <v>0.1012418247983636</v>
+        <v>0.1012418247983646</v>
       </c>
     </row>
     <row r="80">
@@ -2996,19 +2996,19 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6053860752659407</v>
+        <v>0.6053860752659418</v>
       </c>
       <c r="F80">
-        <v>0.140076762022426</v>
+        <v>0.1400767620224285</v>
       </c>
       <c r="G80">
-        <v>0.6286392149233443</v>
+        <v>0.43627845986265</v>
       </c>
       <c r="H80">
-        <v>-0.08996722349663627</v>
+        <v>0.1023935315640581</v>
       </c>
       <c r="I80">
-        <v>0.06671408383923272</v>
+        <v>0.0667140838392337</v>
       </c>
     </row>
     <row r="81">
@@ -3032,13 +3032,13 @@
         <v>0.4166339228374313</v>
       </c>
       <c r="F81">
-        <v>0.2040068123916027</v>
+        <v>0.2040068123916051</v>
       </c>
       <c r="G81">
-        <v>0.09592883154151852</v>
+        <v>0.1698509031992773</v>
       </c>
       <c r="H81">
-        <v>-0.04337606113221329</v>
+        <v>-0.117298132789972</v>
       </c>
       <c r="I81">
         <v>0.3640811524281261</v>
@@ -3062,19 +3062,19 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.4929232289815144</v>
+        <v>0.4929232289815154</v>
       </c>
       <c r="F82">
-        <v>0.4312438314298348</v>
+        <v>0.4312438314298375</v>
       </c>
       <c r="G82">
-        <v>0.1270173704331562</v>
+        <v>0.3437108920115784</v>
       </c>
       <c r="H82">
-        <v>-0.03000270441402829</v>
+        <v>-0.2466962259924505</v>
       </c>
       <c r="I82">
-        <v>0.3959085629623865</v>
+        <v>0.3959085629623875</v>
       </c>
     </row>
     <row r="83">
@@ -3095,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.06261001664075963</v>
+        <v>0.06261001664075776</v>
       </c>
       <c r="F83">
-        <v>0.39438831093141</v>
+        <v>0.3943883109314119</v>
       </c>
       <c r="G83">
-        <v>0.09925778107690075</v>
+        <v>-0.02351814460598127</v>
       </c>
       <c r="H83">
-        <v>-0.1952725638729471</v>
+        <v>-0.07249663819006502</v>
       </c>
       <c r="I83">
-        <v>0.1586247994368059</v>
+        <v>0.158624799436804</v>
       </c>
     </row>
     <row r="84">
@@ -3128,16 +3128,16 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.09331751868514</v>
+        <v>14.09331751868515</v>
       </c>
       <c r="F84">
-        <v>3.766371171786211</v>
+        <v>3.766371171786214</v>
       </c>
       <c r="G84">
-        <v>-5.517447705263546</v>
+        <v>2.31906979058428</v>
       </c>
       <c r="H84">
-        <v>5.63089391030197</v>
+        <v>-2.205623585545855</v>
       </c>
       <c r="I84">
         <v>13.97987131364672</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>5.413203250731433</v>
+        <v>5.413203250731431</v>
       </c>
       <c r="F85">
-        <v>5.015513503759712</v>
+        <v>5.015513503759714</v>
       </c>
       <c r="G85">
         <v>-0.5073236800666964</v>
@@ -3173,7 +3173,7 @@
         <v>-0.6537520414966955</v>
       </c>
       <c r="I85">
-        <v>6.574278972294826</v>
+        <v>6.574278972294823</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-1.166489776668105</v>
+        <v>-0.8156161758714291</v>
       </c>
       <c r="F86">
-        <v>4.600660252347307</v>
+        <v>4.688378652546478</v>
       </c>
       <c r="G86">
-        <v>9.741032883434654</v>
+        <v>0.20079346384812</v>
       </c>
       <c r="H86">
-        <v>-9.908519894775949</v>
+        <v>-0.3682804751894168</v>
       </c>
       <c r="I86">
-        <v>-0.9990027653268098</v>
+        <v>-0.6481291645301323</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-0.721670403609916</v>
+        <v>-0.1499667460020169</v>
       </c>
       <c r="F87">
-        <v>4.404590147284638</v>
+        <v>4.635234461885784</v>
       </c>
       <c r="G87">
-        <v>-0.1504361214857687</v>
+        <v>-0.4326739975981833</v>
       </c>
       <c r="H87">
-        <v>-0.1186137767180931</v>
+        <v>0.1636240993943216</v>
       </c>
       <c r="I87">
-        <v>-0.4526205054060542</v>
+        <v>0.1190831522018448</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-7.211003012333482</v>
+        <v>-6.536699934543177</v>
       </c>
       <c r="F88">
-        <v>-0.9214899854700187</v>
+        <v>-0.5222699014212968</v>
       </c>
       <c r="G88">
-        <v>-0.4226600391658379</v>
+        <v>-0.6709843528819649</v>
       </c>
       <c r="H88">
-        <v>0.004763862455765933</v>
+        <v>0.2530881761718929</v>
       </c>
       <c r="I88">
-        <v>-6.793106835623409</v>
+        <v>-6.118803757833104</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-4.191912019167354</v>
+        <v>-3.450919954238284</v>
       </c>
       <c r="F89">
-        <v>-3.322768802944716</v>
+        <v>-2.738300702663726</v>
       </c>
       <c r="G89">
-        <v>0.1232010657046651</v>
+        <v>-0.1175485603499245</v>
       </c>
       <c r="H89">
-        <v>-0.3994621873585893</v>
+        <v>-0.1587125613039996</v>
       </c>
       <c r="I89">
-        <v>-3.91565089751343</v>
+        <v>-3.17465883258436</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.141011121978358</v>
+        <v>-1.726211420669371</v>
       </c>
       <c r="F90">
-        <v>-3.566399139272279</v>
+        <v>-2.965949513863211</v>
       </c>
       <c r="G90">
-        <v>-0.3511588688039241</v>
+        <v>-0.1571464430805448</v>
       </c>
       <c r="H90">
-        <v>0.2293869335764527</v>
+        <v>0.03537450785307342</v>
       </c>
       <c r="I90">
-        <v>-2.019239186750887</v>
+        <v>-1.6044394854419</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-1.058372831810453</v>
+        <v>-0.8469180459635852</v>
       </c>
       <c r="F91">
-        <v>-3.650574746322413</v>
+        <v>-3.140187338853603</v>
       </c>
       <c r="G91">
-        <v>-0.350305360184503</v>
+        <v>-0.1481602573195862</v>
       </c>
       <c r="H91">
-        <v>0.2933595027482839</v>
+        <v>0.09121439988336716</v>
       </c>
       <c r="I91">
-        <v>-1.001426974374234</v>
+        <v>-0.7899721885273662</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.54178164695616</v>
+        <v>-1.453668428365556</v>
       </c>
       <c r="F92">
-        <v>-2.233269404978083</v>
+        <v>-1.869429462309198</v>
       </c>
       <c r="G92">
-        <v>-0.2492954117547802</v>
+        <v>-0.04498005828145774</v>
       </c>
       <c r="H92">
-        <v>0.191835107665844</v>
+        <v>-0.0124802458074785</v>
       </c>
       <c r="I92">
-        <v>-1.484321342867224</v>
+        <v>-1.396208124276619</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.8083169949575513</v>
+        <v>-0.8000418277225496</v>
       </c>
       <c r="F93">
-        <v>-1.387370648925632</v>
+        <v>-1.206709930680264</v>
       </c>
       <c r="G93">
-        <v>-0.2254828502645548</v>
+        <v>-0.02176260558866694</v>
       </c>
       <c r="H93">
-        <v>0.1298683800340012</v>
+        <v>-0.07385186464188666</v>
       </c>
       <c r="I93">
-        <v>-0.7127025247269977</v>
+        <v>-0.704427357491996</v>
       </c>
     </row>
   </sheetData>

--- a/results/11-2020/fim_interactive.xlsx
+++ b/results/11-2020/fim_interactive.xlsx
@@ -422,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.03019731567373379</v>
+        <v>-0.04873127066753441</v>
       </c>
       <c r="F2">
-        <v>-0.4350874079146173</v>
+        <v>-0.4472294074885929</v>
       </c>
       <c r="G2">
         <v>0.2318136940835876</v>
@@ -434,7 +434,7 @@
         <v>0.1384476835461522</v>
       </c>
       <c r="I2">
-        <v>-0.4004586933034736</v>
+        <v>-0.4189926482972742</v>
       </c>
     </row>
     <row r="3">
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.886918388454526</v>
+        <v>-1.88755655971204</v>
       </c>
       <c r="F3">
-        <v>-0.7355357359278558</v>
+        <v>-0.7456669684567119</v>
       </c>
       <c r="G3">
         <v>-1.31159166141865</v>
@@ -467,7 +467,7 @@
         <v>0.03883989562439163</v>
       </c>
       <c r="I3">
-        <v>-0.614166622660268</v>
+        <v>-0.6148047939177821</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3094652848658668</v>
+        <v>-0.3090944267481067</v>
       </c>
       <c r="F4">
-        <v>-0.6022373754700024</v>
+        <v>-0.6103231932502594</v>
       </c>
       <c r="G4">
         <v>0.4707108944060808</v>
@@ -500,7 +500,7 @@
         <v>-0.5107329829851925</v>
       </c>
       <c r="I4">
-        <v>-0.269443196286755</v>
+        <v>-0.2690723381689949</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.099670111084927</v>
+        <v>-1.107555438830284</v>
       </c>
       <c r="F5">
-        <v>-0.8315627750197642</v>
+        <v>-0.8382344239894907</v>
       </c>
       <c r="G5">
         <v>-0.7542304097927617</v>
@@ -533,7 +533,7 @@
         <v>-0.2606953291135496</v>
       </c>
       <c r="I5">
-        <v>-0.08474437217861612</v>
+        <v>-0.09262969992397241</v>
       </c>
     </row>
     <row r="6">
@@ -554,19 +554,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2162355418791556</v>
+        <v>-0.2185905956505214</v>
       </c>
       <c r="F6">
-        <v>-0.8780723315711196</v>
+        <v>-0.8806992552352374</v>
       </c>
       <c r="G6">
-        <v>0.03794677656077421</v>
+        <v>0.03794677656077419</v>
       </c>
       <c r="H6">
         <v>-0.2790588276696364</v>
       </c>
       <c r="I6">
-        <v>0.02487650922970656</v>
+        <v>0.02252145545834081</v>
       </c>
     </row>
     <row r="7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6965505858098224</v>
+        <v>0.6910360014545981</v>
       </c>
       <c r="F7">
-        <v>-0.2322050880050325</v>
+        <v>-0.2360511149435778</v>
       </c>
       <c r="G7">
         <v>0.4176699769362638</v>
@@ -599,7 +599,7 @@
         <v>0.03463379122030326</v>
       </c>
       <c r="I7">
-        <v>0.2442468176532554</v>
+        <v>0.238732233298031</v>
       </c>
     </row>
     <row r="8">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.045407526675323</v>
+        <v>1.027385345497273</v>
       </c>
       <c r="F8">
-        <v>0.106513114880265</v>
+        <v>0.0980688281177672</v>
       </c>
       <c r="G8">
         <v>0.3854233068740954</v>
@@ -632,7 +632,7 @@
         <v>0.2634165840868962</v>
       </c>
       <c r="I8">
-        <v>0.3965676357143318</v>
+        <v>0.3785454545362815</v>
       </c>
     </row>
     <row r="9">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8419643655441874</v>
+        <v>0.801022958330558</v>
       </c>
       <c r="F9">
-        <v>0.5919217340375438</v>
+        <v>0.5752134274079777</v>
       </c>
       <c r="G9">
         <v>-0.3246051547334287</v>
@@ -665,7 +665,7 @@
         <v>-0.3447600652268802</v>
       </c>
       <c r="I9">
-        <v>1.511329585504496</v>
+        <v>1.470388178290867</v>
       </c>
     </row>
     <row r="10">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.896823328363196</v>
+        <v>1.92051494273168</v>
       </c>
       <c r="F10">
-        <v>1.120186451598132</v>
+        <v>1.109989812003528</v>
       </c>
       <c r="G10">
         <v>0.1230989010896827</v>
@@ -698,7 +698,7 @@
         <v>0.5335658662608733</v>
       </c>
       <c r="I10">
-        <v>1.24015856101264</v>
+        <v>1.263850175381124</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.265792202677162</v>
+        <v>2.285535806575335</v>
       </c>
       <c r="F11">
-        <v>1.512496855814967</v>
+        <v>1.508614763283712</v>
       </c>
       <c r="G11">
         <v>1.052245127335171</v>
@@ -731,7 +731,7 @@
         <v>-0.2965791441100969</v>
       </c>
       <c r="I11">
-        <v>1.510126219452088</v>
+        <v>1.529869823350261</v>
       </c>
     </row>
     <row r="12">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.893505643625337</v>
+        <v>1.931644997024508</v>
       </c>
       <c r="F12">
-        <v>1.72452138505247</v>
+        <v>1.734679676165521</v>
       </c>
       <c r="G12">
         <v>0.3185676646894323</v>
@@ -764,7 +764,7 @@
         <v>-0.2595992058963156</v>
       </c>
       <c r="I12">
-        <v>1.834537184832221</v>
+        <v>1.872676538231392</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.415055062552841</v>
+        <v>1.443739216222842</v>
       </c>
       <c r="F13">
-        <v>1.867794059304634</v>
+        <v>1.895358740638592</v>
       </c>
       <c r="G13">
         <v>-0.08532620047935681</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.524246111599574</v>
+        <v>1.552930265269574</v>
       </c>
     </row>
     <row r="14">
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.271310149807468</v>
+        <v>1.187712274604291</v>
       </c>
       <c r="F14">
-        <v>1.711415764665702</v>
+        <v>1.712158073606745</v>
       </c>
       <c r="G14">
         <v>0.3456853209154376</v>
@@ -830,7 +830,7 @@
         <v>-0.2574736546801012</v>
       </c>
       <c r="I14">
-        <v>1.183098483572132</v>
+        <v>1.099500608368954</v>
       </c>
     </row>
     <row r="15">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7767005046887712</v>
+        <v>0.7133263378476467</v>
       </c>
       <c r="F15">
-        <v>1.339142840168604</v>
+        <v>1.319105706424823</v>
       </c>
       <c r="G15">
         <v>0.0406776650144408</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.197971182038035</v>
+        <v>1.13459701519691</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.32503765527839</v>
+        <v>1.385299507138876</v>
       </c>
       <c r="F16">
-        <v>1.197025843081867</v>
+        <v>1.182519333953415</v>
       </c>
       <c r="G16">
         <v>1.665594538201976</v>
@@ -896,7 +896,7 @@
         <v>-1.43490081457891</v>
       </c>
       <c r="I16">
-        <v>1.094343931655323</v>
+        <v>1.154605783515809</v>
       </c>
     </row>
     <row r="17">
@@ -917,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5197791272623342</v>
+        <v>0.5884807197534302</v>
       </c>
       <c r="F17">
-        <v>0.9732068592592401</v>
+        <v>0.9687047098360617</v>
       </c>
       <c r="G17">
-        <v>-0.7323423591140147</v>
+        <v>-0.7323423591140148</v>
       </c>
       <c r="H17">
         <v>0.3998565275949437</v>
       </c>
       <c r="I17">
-        <v>0.8522649587814052</v>
+        <v>0.9209665512725013</v>
       </c>
     </row>
     <row r="18">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6680680016178872</v>
+        <v>0.6483471362496426</v>
       </c>
       <c r="F18">
-        <v>0.8223963222118449</v>
+        <v>0.8338634252473998</v>
       </c>
       <c r="G18">
         <v>0.5092651698143085</v>
@@ -962,7 +962,7 @@
         <v>-0.546989131172936</v>
       </c>
       <c r="I18">
-        <v>0.7057919629765147</v>
+        <v>0.6860710976082701</v>
       </c>
     </row>
     <row r="19">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1111085042382836</v>
+        <v>0.07706421107389419</v>
       </c>
       <c r="F19">
-        <v>0.655998322099223</v>
+        <v>0.6747978935539617</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597879</v>
+        <v>-0.4041200882597878</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
       </c>
       <c r="I19">
-        <v>0.2816590949686295</v>
+        <v>0.24761480180424</v>
       </c>
     </row>
     <row r="20">
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1221173408662022</v>
+        <v>-0.1197440912471906</v>
       </c>
       <c r="F20">
-        <v>0.2942095730630751</v>
+        <v>0.2985369939574451</v>
       </c>
       <c r="G20">
-        <v>-0.2813714609987537</v>
+        <v>-0.2813714609987538</v>
       </c>
       <c r="H20">
         <v>-0.03567393639946731</v>
       </c>
       <c r="I20">
-        <v>0.1949280565320188</v>
+        <v>0.1973013061510305</v>
       </c>
     </row>
     <row r="21">
@@ -1049,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.5372362554788321</v>
+        <v>-0.4654912699649514</v>
       </c>
       <c r="F21">
-        <v>0.02995572737778351</v>
+        <v>0.0350439965278497</v>
       </c>
       <c r="G21">
-        <v>0.3398770253391277</v>
+        <v>0.3398770253391276</v>
       </c>
       <c r="H21">
         <v>-0.7314416061911453</v>
       </c>
       <c r="I21">
-        <v>-0.1456716746268146</v>
+        <v>-0.07392668911293369</v>
       </c>
     </row>
     <row r="22">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.7200914007569272</v>
+        <v>-0.6667320013633891</v>
       </c>
       <c r="F22">
-        <v>-0.3170841232159201</v>
+        <v>-0.2937257878754082</v>
       </c>
       <c r="G22">
         <v>-0.3550314415416719</v>
@@ -1094,7 +1094,7 @@
         <v>-0.2307444377000993</v>
       </c>
       <c r="I22">
-        <v>-0.1343155215151561</v>
+        <v>-0.080956122121618</v>
       </c>
     </row>
     <row r="23">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6324808434686376</v>
+        <v>-0.6360786025057481</v>
       </c>
       <c r="F23">
-        <v>-0.5029814601426504</v>
+        <v>-0.4720114912703188</v>
       </c>
       <c r="G23">
         <v>0.02168388493087975</v>
@@ -1127,7 +1127,7 @@
         <v>-0.1581741428903265</v>
       </c>
       <c r="I23">
-        <v>-0.4959905855091909</v>
+        <v>-0.4995883445463014</v>
       </c>
     </row>
     <row r="24">
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.026250520745383</v>
+        <v>-1.059035740127722</v>
       </c>
       <c r="F24">
-        <v>-0.7290147551124457</v>
+        <v>-0.7068344034904516</v>
       </c>
       <c r="G24">
-        <v>-0.2701579859382385</v>
+        <v>-0.2701579859382386</v>
       </c>
       <c r="H24">
         <v>-0.2764818884085525</v>
       </c>
       <c r="I24">
-        <v>-0.4796106463985922</v>
+        <v>-0.5123958657809304</v>
       </c>
     </row>
     <row r="25">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7460708966706079</v>
+        <v>-0.7633323808550926</v>
       </c>
       <c r="F25">
-        <v>-0.7812234154103896</v>
+        <v>-0.7812946812129868</v>
       </c>
       <c r="G25">
         <v>-0.1071728628412014</v>
@@ -1193,7 +1193,7 @@
         <v>-0.1249180002665537</v>
       </c>
       <c r="I25">
-        <v>-0.5139800335628528</v>
+        <v>-0.5312415177473375</v>
       </c>
     </row>
     <row r="26">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8593238854567965</v>
+        <v>-0.868496698635547</v>
       </c>
       <c r="F26">
-        <v>-0.816031536585357</v>
+        <v>-0.8317358555310264</v>
       </c>
       <c r="G26">
         <v>-0.2767950136222138</v>
@@ -1226,7 +1226,7 @@
         <v>-0.1302645945694583</v>
       </c>
       <c r="I26">
-        <v>-0.4522642772651244</v>
+        <v>-0.4614370904438749</v>
       </c>
     </row>
     <row r="27">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.0865658183011313</v>
+        <v>-0.08904151706259766</v>
       </c>
       <c r="F27">
-        <v>-0.6795527802934803</v>
+        <v>-0.6949765841702387</v>
       </c>
       <c r="G27">
         <v>0.6877869103813896</v>
@@ -1259,7 +1259,7 @@
         <v>-0.1683661652429188</v>
       </c>
       <c r="I27">
-        <v>-0.6059865634396022</v>
+        <v>-0.6084622622010686</v>
       </c>
     </row>
     <row r="28">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.122604385854955</v>
+        <v>-1.121428329652999</v>
       </c>
       <c r="F28">
-        <v>-0.7036412465708731</v>
+        <v>-0.710574731551558</v>
       </c>
       <c r="G28">
         <v>-0.4905032062218124</v>
@@ -1292,7 +1292,7 @@
         <v>0.03320395040116637</v>
       </c>
       <c r="I28">
-        <v>-0.6653051300343085</v>
+        <v>-0.6641290738323532</v>
       </c>
     </row>
     <row r="29">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8149030378977268</v>
+        <v>-0.8023196183270442</v>
       </c>
       <c r="F29">
-        <v>-0.7208492818776528</v>
+        <v>-0.720321540919546</v>
       </c>
       <c r="G29">
         <v>-0.6627889888787315</v>
@@ -1325,7 +1325,7 @@
         <v>0.1395514339167008</v>
       </c>
       <c r="I29">
-        <v>-0.2916654829356961</v>
+        <v>-0.2790820633650136</v>
       </c>
     </row>
     <row r="30">
@@ -1346,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.07218541959382546</v>
+        <v>-0.04565329217308461</v>
       </c>
       <c r="F30">
-        <v>-0.5240646654119101</v>
+        <v>-0.5146106893039304</v>
       </c>
       <c r="G30">
-        <v>0.04053261560523381</v>
+        <v>0.0405326156052338</v>
       </c>
       <c r="H30">
         <v>0.202729765204821</v>
       </c>
       <c r="I30">
-        <v>-0.3154478004038803</v>
+        <v>-0.2889156729831394</v>
       </c>
     </row>
     <row r="31">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.6006588175423151</v>
+        <v>-0.5940432398129916</v>
       </c>
       <c r="F31">
-        <v>-0.652587915222206</v>
+        <v>-0.6408611199915289</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1391,7 +1391,7 @@
         <v>0.1914173671366676</v>
       </c>
       <c r="I31">
-        <v>-0.3438623468254683</v>
+        <v>-0.3372467690961448</v>
       </c>
     </row>
     <row r="32">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.06717102114142692</v>
+        <v>0.04940884206564261</v>
       </c>
       <c r="F32">
-        <v>-0.3551440634731107</v>
+        <v>-0.3481518270618685</v>
       </c>
       <c r="G32">
         <v>0.6845768143843559</v>
@@ -1424,7 +1424,7 @@
         <v>-0.3565550164851028</v>
       </c>
       <c r="I32">
-        <v>-0.2608507767578262</v>
+        <v>-0.2786129558336105</v>
       </c>
     </row>
     <row r="33">
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06038799814625645</v>
+        <v>-0.06787364306475245</v>
       </c>
       <c r="F33">
-        <v>-0.1665153035352431</v>
+        <v>-0.1645403332462955</v>
       </c>
       <c r="G33">
-        <v>-0.08640542978502516</v>
+        <v>-0.08640542978502515</v>
       </c>
       <c r="H33">
         <v>0.06632580721215653</v>
       </c>
       <c r="I33">
-        <v>-0.04030837557338782</v>
+        <v>-0.04779402049188383</v>
       </c>
     </row>
     <row r="34">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2808439273863736</v>
+        <v>0.2930068653878942</v>
       </c>
       <c r="F34">
-        <v>-0.07825796679019334</v>
+        <v>-0.07987529385605083</v>
       </c>
       <c r="G34">
         <v>0.134181683212793</v>
@@ -1490,7 +1490,7 @@
         <v>0.1080155521227334</v>
       </c>
       <c r="I34">
-        <v>0.03864669205084713</v>
+        <v>0.05080963005236774</v>
       </c>
     </row>
     <row r="35">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.07783243930686368</v>
+        <v>-0.05500495643226036</v>
       </c>
       <c r="F35">
-        <v>0.05244862776866951</v>
+        <v>0.05488427698913198</v>
       </c>
       <c r="G35">
         <v>0.3175547462742406</v>
@@ -1523,7 +1523,7 @@
         <v>-0.5011733566315455</v>
       </c>
       <c r="I35">
-        <v>0.1057861710504412</v>
+        <v>0.1286136539250445</v>
       </c>
     </row>
     <row r="36">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2.583795592486664</v>
+        <v>2.604355249890733</v>
       </c>
       <c r="F36">
-        <v>0.6816047706049787</v>
+        <v>0.6936208789454045</v>
       </c>
       <c r="G36">
         <v>0.5310600703908137</v>
@@ -1556,7 +1556,7 @@
         <v>-0.1974623965262828</v>
       </c>
       <c r="I36">
-        <v>2.250197918622133</v>
+        <v>2.270757576026202</v>
       </c>
     </row>
     <row r="37">
@@ -1577,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.354967075312307</v>
+        <v>1.413474371904715</v>
       </c>
       <c r="F37">
-        <v>1.03544353896962</v>
+        <v>1.063957882687771</v>
       </c>
       <c r="G37">
-        <v>-0.002758138597635004</v>
+        <v>-0.002758138597635018</v>
       </c>
       <c r="H37">
         <v>0.3093434144177715</v>
       </c>
       <c r="I37">
-        <v>1.04838179949217</v>
+        <v>1.106889096084578</v>
       </c>
     </row>
     <row r="38">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.546684341069178</v>
+        <v>1.632737114848934</v>
       </c>
       <c r="F38">
-        <v>1.351903642390321</v>
+        <v>1.398890445053031</v>
       </c>
       <c r="G38">
         <v>0.5136971469729917</v>
@@ -1622,7 +1622,7 @@
         <v>-0.2960053567725832</v>
       </c>
       <c r="I38">
-        <v>1.328992550868769</v>
+        <v>1.415045324648525</v>
       </c>
     </row>
     <row r="39">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.491945705546647</v>
+        <v>3.532145216423655</v>
       </c>
       <c r="F39">
-        <v>2.244348178603699</v>
+        <v>2.29567798826701</v>
       </c>
       <c r="G39">
         <v>0.1830775014705948</v>
@@ -1655,7 +1655,7 @@
         <v>0.4338389778553179</v>
       </c>
       <c r="I39">
-        <v>2.875029226220735</v>
+        <v>2.915228737097742</v>
       </c>
     </row>
     <row r="40">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.840689464984884</v>
+        <v>2.86395089891158</v>
       </c>
       <c r="F40">
-        <v>2.308571646728254</v>
+        <v>2.360576900522222</v>
       </c>
       <c r="G40">
         <v>1.644181498240886</v>
@@ -1688,7 +1688,7 @@
         <v>-0.7074856204578588</v>
       </c>
       <c r="I40">
-        <v>1.903993587201857</v>
+        <v>1.927255021128552</v>
       </c>
     </row>
     <row r="41">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.793670460295999</v>
+        <v>2.73952350682038</v>
       </c>
       <c r="F41">
-        <v>2.668247492974177</v>
+        <v>2.692089184251138</v>
       </c>
       <c r="G41">
         <v>0.4214418425158024</v>
@@ -1721,7 +1721,7 @@
         <v>-0.44606518048123</v>
       </c>
       <c r="I41">
-        <v>2.818293798261426</v>
+        <v>2.764146844785808</v>
       </c>
     </row>
     <row r="42">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.389424258125913</v>
+        <v>2.255680791332724</v>
       </c>
       <c r="F42">
-        <v>2.878932472238361</v>
+        <v>2.847825103372085</v>
       </c>
       <c r="G42">
         <v>0.6290059163210516</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.474822586458898</v>
+        <v>2.341079119665709</v>
       </c>
     </row>
     <row r="43">
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.558532748384792</v>
+        <v>1.494787064688244</v>
       </c>
       <c r="F43">
-        <v>2.395579232947897</v>
+        <v>2.338485565438233</v>
       </c>
       <c r="G43">
         <v>0.4901069572014474</v>
@@ -1787,7 +1787,7 @@
         <v>-1.063597864520708</v>
       </c>
       <c r="I43">
-        <v>2.132023655704053</v>
+        <v>2.068277972007504</v>
       </c>
     </row>
     <row r="44">
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.197155146805809</v>
+        <v>1.197042502772424</v>
       </c>
       <c r="F44">
-        <v>1.984695653403128</v>
+        <v>1.921758466403444</v>
       </c>
       <c r="G44">
         <v>0.4203095613777605</v>
@@ -1820,7 +1820,7 @@
         <v>-0.37639879104271</v>
       </c>
       <c r="I44">
-        <v>1.153244376470759</v>
+        <v>1.153131732437373</v>
       </c>
     </row>
     <row r="45">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.2537911406297906</v>
+        <v>0.1913936891530983</v>
       </c>
       <c r="F45">
-        <v>1.349725823486576</v>
+        <v>1.284726011986623</v>
       </c>
       <c r="G45">
         <v>0.08455124436341505</v>
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.095932274663203</v>
+        <v>1.03353482318651</v>
       </c>
     </row>
     <row r="46">
@@ -1874,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2213946766142552</v>
+        <v>0.2280491170529774</v>
       </c>
       <c r="F46">
-        <v>0.8077184281086618</v>
+        <v>0.7778180934166865</v>
       </c>
       <c r="G46">
-        <v>-0.7063634794243946</v>
+        <v>-0.7063634794243945</v>
       </c>
       <c r="H46">
         <v>-0.08829624979960171</v>
       </c>
       <c r="I46">
-        <v>1.016054405838251</v>
+        <v>1.022708846276974</v>
       </c>
     </row>
     <row r="47">
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.512403547515541</v>
+        <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.03998435413357848</v>
+        <v>0.04523267965381061</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -1919,7 +1919,7 @@
         <v>-0.5207276274948131</v>
       </c>
       <c r="I47">
-        <v>-0.2124916879898548</v>
+        <v>-0.1356427308375739</v>
       </c>
     </row>
     <row r="48">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.329008622253414</v>
+        <v>-1.317036575972883</v>
       </c>
       <c r="F48">
-        <v>-0.5915565881312274</v>
+        <v>-0.5832870900325162</v>
       </c>
       <c r="G48">
         <v>-0.1791826590862452</v>
@@ -1952,7 +1952,7 @@
         <v>-0.6686679888322142</v>
       </c>
       <c r="I48">
-        <v>-0.4811579743349546</v>
+        <v>-0.4691859280544238</v>
       </c>
     </row>
     <row r="49">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.147976703534925</v>
+        <v>-2.163708922374684</v>
       </c>
       <c r="F49">
-        <v>-1.191998549172406</v>
+        <v>-1.172062742914462</v>
       </c>
       <c r="G49">
         <v>-1.410076980392139</v>
@@ -1985,7 +1985,7 @@
         <v>-0.05152418484441068</v>
       </c>
       <c r="I49">
-        <v>-0.6863755382983755</v>
+        <v>-0.702107757138134</v>
       </c>
     </row>
     <row r="50">
@@ -2006,19 +2006,19 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.097164219896707</v>
+        <v>-1.085197855429417</v>
       </c>
       <c r="F50">
-        <v>-1.521638273300147</v>
+        <v>-1.500374486035061</v>
       </c>
       <c r="G50">
-        <v>-0.2105533183890023</v>
+        <v>-0.2105533183890024</v>
       </c>
       <c r="H50">
         <v>-0.1404336047976929</v>
       </c>
       <c r="I50">
-        <v>-0.7461772967100115</v>
+        <v>-0.7342109322427215</v>
       </c>
     </row>
     <row r="51">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.474176269031961</v>
+        <v>-1.457193229872469</v>
       </c>
       <c r="F51">
-        <v>-1.512081453679252</v>
+        <v>-1.505784145912363</v>
       </c>
       <c r="G51">
         <v>-0.3909270564522251</v>
@@ -2051,7 +2051,7 @@
         <v>-0.2560200781047454</v>
       </c>
       <c r="I51">
-        <v>-0.8272291344749906</v>
+        <v>-0.8102460953154985</v>
       </c>
     </row>
     <row r="52">
@@ -2072,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.270989307518341</v>
+        <v>-1.283561786197312</v>
       </c>
       <c r="F52">
-        <v>-1.497576624995483</v>
+        <v>-1.49741544846847</v>
       </c>
       <c r="G52">
-        <v>-0.6442132037942119</v>
+        <v>-0.6442132037942118</v>
       </c>
       <c r="H52">
         <v>-0.06640099407624728</v>
       </c>
       <c r="I52">
-        <v>-0.5603751096478817</v>
+        <v>-0.5729475883268532</v>
       </c>
     </row>
     <row r="53">
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.850115433964387</v>
+        <v>-0.8579113804721512</v>
       </c>
       <c r="F53">
-        <v>-1.173111307602849</v>
+        <v>-1.170966062992837</v>
       </c>
       <c r="G53">
         <v>-0.07052941796100387</v>
@@ -2117,7 +2117,7 @@
         <v>-0.3554763575157842</v>
       </c>
       <c r="I53">
-        <v>-0.4241096584875989</v>
+        <v>-0.4319056049953631</v>
       </c>
     </row>
     <row r="54">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.577666199735682</v>
+        <v>-1.56608131674303</v>
       </c>
       <c r="F54">
-        <v>-1.293236802562593</v>
+        <v>-1.29118692832124</v>
       </c>
       <c r="G54">
         <v>-0.8865916234440627</v>
@@ -2150,7 +2150,7 @@
         <v>-0.1832364051070537</v>
       </c>
       <c r="I54">
-        <v>-0.5078381711845661</v>
+        <v>-0.4962532881919139</v>
       </c>
     </row>
     <row r="55">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.807283111565521</v>
+        <v>-1.783417405602018</v>
       </c>
       <c r="F55">
-        <v>-1.376513513195983</v>
+        <v>-1.372742972253627</v>
       </c>
       <c r="G55">
         <v>-1.047790882965999</v>
@@ -2183,7 +2183,7 @@
         <v>0.04953696020514492</v>
       </c>
       <c r="I55">
-        <v>-0.8090291888046676</v>
+        <v>-0.7851634828411646</v>
       </c>
     </row>
     <row r="56">
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.296894900430045</v>
+        <v>-1.295826022465722</v>
       </c>
       <c r="F56">
-        <v>-1.382989911423909</v>
+        <v>-1.37580903132073</v>
       </c>
       <c r="G56">
         <v>-0.3471829962638515</v>
@@ -2216,7 +2216,7 @@
         <v>-0.0966042891959619</v>
       </c>
       <c r="I56">
-        <v>-0.8531076149702318</v>
+        <v>-0.8520387370059082</v>
       </c>
     </row>
     <row r="57">
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.147544433772516</v>
+        <v>-1.152891776480925</v>
       </c>
       <c r="F57">
-        <v>-1.457347161375941</v>
+        <v>-1.449554130322923</v>
       </c>
       <c r="G57">
         <v>-0.6132388212289077</v>
@@ -2249,7 +2249,7 @@
         <v>-0.1028635192602457</v>
       </c>
       <c r="I57">
-        <v>-0.4314420932833621</v>
+        <v>-0.4367894359917712</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.391699613015229</v>
+        <v>-1.384154271490635</v>
       </c>
       <c r="F58">
-        <v>-1.410855514695827</v>
+        <v>-1.404072369009824</v>
       </c>
       <c r="G58">
         <v>-0.9172888700772799</v>
@@ -2282,7 +2282,7 @@
         <v>0.01540737794330799</v>
       </c>
       <c r="I58">
-        <v>-0.4898181208812569</v>
+        <v>-0.4822727793566633</v>
       </c>
     </row>
     <row r="59">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.281009764487659</v>
+        <v>-1.297127733297142</v>
       </c>
       <c r="F59">
-        <v>-1.279287177926362</v>
+        <v>-1.282499950933605</v>
       </c>
       <c r="G59">
         <v>-0.2587432465973415</v>
@@ -2315,7 +2315,7 @@
         <v>-0.3629080917018036</v>
       </c>
       <c r="I59">
-        <v>-0.6593584261885134</v>
+        <v>-0.6754763949979967</v>
       </c>
     </row>
     <row r="60">
@@ -2336,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7256627824444626</v>
+        <v>-0.7502484479585195</v>
       </c>
       <c r="F60">
-        <v>-1.136479148429966</v>
+        <v>-1.146105557306805</v>
       </c>
       <c r="G60">
-        <v>-0.09302646274323333</v>
+        <v>-0.09302646274323331</v>
       </c>
       <c r="H60">
         <v>-0.1298910337959616</v>
       </c>
       <c r="I60">
-        <v>-0.5027452859052677</v>
+        <v>-0.5273309514193246</v>
       </c>
     </row>
     <row r="61">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.2214156928532118</v>
+        <v>-0.1723529222894641</v>
       </c>
       <c r="F61">
-        <v>-0.9049469632001401</v>
+        <v>-0.9009708437589395</v>
       </c>
       <c r="G61">
         <v>0.03469619020211948</v>
@@ -2381,7 +2381,7 @@
         <v>0.1381184495505191</v>
       </c>
       <c r="I61">
-        <v>-0.3942303326058504</v>
+        <v>-0.3451675620421027</v>
       </c>
     </row>
     <row r="62">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.6018255286253917</v>
+        <v>-0.5414991552362339</v>
       </c>
       <c r="F62">
-        <v>-0.7074784421026807</v>
+        <v>-0.6903070646953393</v>
       </c>
       <c r="G62">
-        <v>-0.8456653475137065</v>
+        <v>-0.8456653475137066</v>
       </c>
       <c r="H62">
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.2539162208111932</v>
+        <v>-0.1935898474220352</v>
       </c>
     </row>
     <row r="63">
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07567012183324916</v>
+        <v>0.07521201813555149</v>
       </c>
       <c r="F63">
-        <v>-0.3683084705224539</v>
+        <v>-0.347222126837166</v>
       </c>
       <c r="G63">
         <v>0.0488266565076218</v>
@@ -2447,7 +2447,7 @@
         <v>0.00794499122983091</v>
       </c>
       <c r="I63">
-        <v>0.01889847409579645</v>
+        <v>0.01844037039809878</v>
       </c>
     </row>
     <row r="64">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.2955907407600892</v>
+        <v>0.286690415375635</v>
       </c>
       <c r="F64">
-        <v>-0.1129950897213159</v>
+        <v>-0.08798741100362742</v>
       </c>
       <c r="G64">
         <v>-0.07135988355089964</v>
@@ -2480,7 +2480,7 @@
         <v>0.3696321006761685</v>
       </c>
       <c r="I64">
-        <v>-0.002681476365179605</v>
+        <v>-0.01158180174963387</v>
       </c>
     </row>
     <row r="65">
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.03570034961818545</v>
+        <v>0.03462809556592961</v>
       </c>
       <c r="F65">
-        <v>-0.04871607910346658</v>
+        <v>-0.036242156539779</v>
       </c>
       <c r="G65">
         <v>-0.04123200610439566</v>
@@ -2513,7 +2513,7 @@
         <v>0.05673608506707493</v>
       </c>
       <c r="I65">
-        <v>0.02019627065550618</v>
+        <v>0.01912401660325034</v>
       </c>
     </row>
     <row r="66">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1038810534372335</v>
+        <v>-0.1011811643181902</v>
       </c>
       <c r="F66">
-        <v>0.07577003969357297</v>
+        <v>0.07383734118973195</v>
       </c>
       <c r="G66">
         <v>0.1305714754136182</v>
@@ -2546,7 +2546,7 @@
         <v>-0.1739916507745391</v>
       </c>
       <c r="I66">
-        <v>-0.06046087807631256</v>
+        <v>-0.05776098895726919</v>
       </c>
     </row>
     <row r="67">
@@ -2567,19 +2567,19 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3150678201718903</v>
+        <v>0.3179058919803286</v>
       </c>
       <c r="F67">
-        <v>0.1356194642782332</v>
+        <v>0.1345108096509262</v>
       </c>
       <c r="G67">
-        <v>-0.009520454394792793</v>
+        <v>-0.0095204543947928</v>
       </c>
       <c r="H67">
         <v>0.3618699123118419</v>
       </c>
       <c r="I67">
-        <v>-0.03728163774515877</v>
+        <v>-0.0344435659367205</v>
       </c>
     </row>
     <row r="68">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4750874140947094</v>
+        <v>-0.4745098658630824</v>
       </c>
       <c r="F68">
-        <v>-0.05705007443546643</v>
+        <v>-0.0557892606587531</v>
       </c>
       <c r="G68">
         <v>-0.2028730263807215</v>
@@ -2612,7 +2612,7 @@
         <v>-0.1980140598340873</v>
       </c>
       <c r="I68">
-        <v>-0.07420032787990059</v>
+        <v>-0.0736227796482735</v>
       </c>
     </row>
     <row r="69">
@@ -2633,19 +2633,19 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09131664228255486</v>
+        <v>-0.09254941770088418</v>
       </c>
       <c r="F69">
-        <v>-0.08880432241065152</v>
+        <v>-0.08758363897545654</v>
       </c>
       <c r="G69">
-        <v>-0.05943276617148831</v>
+        <v>-0.0594327661714883</v>
       </c>
       <c r="H69">
         <v>0.1054090751596382</v>
       </c>
       <c r="I69">
-        <v>-0.1372929512707047</v>
+        <v>-0.1385257266890341</v>
       </c>
     </row>
     <row r="70">
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1995224324732985</v>
+        <v>-0.1993498198189684</v>
       </c>
       <c r="F70">
-        <v>-0.1127146671696677</v>
+        <v>-0.1121258028506511</v>
       </c>
       <c r="G70">
         <v>-0.1469082386613492</v>
@@ -2678,7 +2678,7 @@
         <v>0.05240041216595906</v>
       </c>
       <c r="I70">
-        <v>-0.1050146059779083</v>
+        <v>-0.1048419933235782</v>
       </c>
     </row>
     <row r="71">
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.212493341705824</v>
+        <v>-0.2105616900593215</v>
       </c>
       <c r="F71">
-        <v>-0.2446049576390963</v>
+        <v>-0.2442426983605636</v>
       </c>
       <c r="G71">
         <v>-0.2842812308453224</v>
@@ -2711,7 +2711,7 @@
         <v>0.01102558298453079</v>
       </c>
       <c r="I71">
-        <v>0.06076230615496768</v>
+        <v>0.0626939578014702</v>
       </c>
     </row>
     <row r="72">
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.06999808627089675</v>
+        <v>0.07546623696688659</v>
       </c>
       <c r="F72">
-        <v>-0.1083335825476948</v>
+        <v>-0.1067486726530714</v>
       </c>
       <c r="G72">
         <v>0.1101517719974749</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08276012821439467</v>
+        <v>0.08822827891038452</v>
       </c>
     </row>
     <row r="73">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2322422349336884</v>
+        <v>-0.2288536337787813</v>
       </c>
       <c r="F73">
-        <v>-0.1435649807104781</v>
+        <v>-0.1408247266725457</v>
       </c>
       <c r="G73">
         <v>-0.3642509696606954</v>
@@ -2777,7 +2777,7 @@
         <v>0.1086193414943325</v>
       </c>
       <c r="I73">
-        <v>0.02338939323267457</v>
+        <v>0.02677799438758162</v>
       </c>
     </row>
     <row r="74">
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03573077816420328</v>
+        <v>0.03946169552298145</v>
       </c>
       <c r="F74">
-        <v>-0.08475167805110267</v>
+        <v>-0.0811218478370582</v>
       </c>
       <c r="G74">
         <v>0.2237569875946429</v>
@@ -2810,7 +2810,7 @@
         <v>-0.02712450934502616</v>
       </c>
       <c r="I74">
-        <v>-0.1609017000854134</v>
+        <v>-0.1571707827266353</v>
       </c>
     </row>
     <row r="75">
@@ -2831,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.01710185813511553</v>
+        <v>0.01842065120159704</v>
       </c>
       <c r="F75">
-        <v>-0.0273528780908678</v>
+        <v>-0.02387626252182858</v>
       </c>
       <c r="G75">
         <v>-0.01311419685234618</v>
@@ -2843,7 +2843,7 @@
         <v>-0.03836760891619392</v>
       </c>
       <c r="I75">
-        <v>0.06858366390365563</v>
+        <v>0.06990245697013714</v>
       </c>
     </row>
     <row r="76">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4267561736687215</v>
+        <v>0.4273326313133025</v>
       </c>
       <c r="F76">
-        <v>0.0618366437585884</v>
+        <v>0.06409033606477539</v>
       </c>
       <c r="G76">
         <v>0.007741184328022455</v>
@@ -2876,7 +2876,7 @@
         <v>0.1820306418640798</v>
       </c>
       <c r="I76">
-        <v>0.2369843474766193</v>
+        <v>0.2375608051212002</v>
       </c>
     </row>
     <row r="77">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1609137213607248</v>
+        <v>0.1652983376755857</v>
       </c>
       <c r="F77">
-        <v>0.1601256328321917</v>
+        <v>0.1626283289283671</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -2909,7 +2909,7 @@
         <v>-0.0655278868595966</v>
       </c>
       <c r="I77">
-        <v>0.04322513644174007</v>
+        <v>0.04760975275660094</v>
       </c>
     </row>
     <row r="78">
@@ -2930,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4160248471714142</v>
+        <v>-0.4280824757189858</v>
       </c>
       <c r="F78">
-        <v>0.04718672649828733</v>
+        <v>0.04574228611787533</v>
       </c>
       <c r="G78">
-        <v>-0.03196292316399491</v>
+        <v>-0.0319629231639949</v>
       </c>
       <c r="H78">
         <v>-0.4472970132207758</v>
       </c>
       <c r="I78">
-        <v>0.06323508921335651</v>
+        <v>0.05117746066578486</v>
       </c>
     </row>
     <row r="79">
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.21003209863446</v>
+        <v>0.211407231042728</v>
       </c>
       <c r="F79">
-        <v>0.09541928662312343</v>
+        <v>0.09398893107815808</v>
       </c>
       <c r="G79">
         <v>-0.1261415442716636</v>
@@ -2975,7 +2975,7 @@
         <v>0.234931818107759</v>
       </c>
       <c r="I79">
-        <v>0.1012418247983646</v>
+        <v>0.1026169572066326</v>
       </c>
     </row>
     <row r="80">
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6053860752659418</v>
+        <v>0.6139640220240625</v>
       </c>
       <c r="F80">
-        <v>0.1400767620224285</v>
+        <v>0.1406467787558481</v>
       </c>
       <c r="G80">
         <v>0.43627845986265</v>
@@ -3008,7 +3008,7 @@
         <v>0.1023935315640581</v>
       </c>
       <c r="I80">
-        <v>0.0667140838392337</v>
+        <v>0.07529203059735448</v>
       </c>
     </row>
     <row r="81">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4166339228374313</v>
+        <v>0.4001201119220791</v>
       </c>
       <c r="F81">
-        <v>0.2040068123916051</v>
+        <v>0.1993522223174715</v>
       </c>
       <c r="G81">
         <v>0.1698509031992773</v>
@@ -3041,7 +3041,7 @@
         <v>-0.117298132789972</v>
       </c>
       <c r="I81">
-        <v>0.3640811524281261</v>
+        <v>0.3475673415127739</v>
       </c>
     </row>
     <row r="82">
@@ -3062,19 +3062,19 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.4929232289815154</v>
+        <v>0.4816080942708365</v>
       </c>
       <c r="F82">
-        <v>0.4312438314298375</v>
+        <v>0.426774864814927</v>
       </c>
       <c r="G82">
-        <v>0.3437108920115784</v>
+        <v>0.3437108920115783</v>
       </c>
       <c r="H82">
         <v>-0.2466962259924505</v>
       </c>
       <c r="I82">
-        <v>0.3959085629623875</v>
+        <v>0.3845934282517087</v>
       </c>
     </row>
     <row r="83">
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.06261001664075776</v>
+        <v>0.08506766165855074</v>
       </c>
       <c r="F83">
-        <v>0.3943883109314119</v>
+        <v>0.3951899724688828</v>
       </c>
       <c r="G83">
         <v>-0.02351814460598127</v>
@@ -3107,7 +3107,7 @@
         <v>-0.07249663819006502</v>
       </c>
       <c r="I83">
-        <v>0.158624799436804</v>
+        <v>0.181082444454597</v>
       </c>
     </row>
     <row r="84">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.09331751868515</v>
+        <v>14.31048153771792</v>
       </c>
       <c r="F84">
-        <v>3.766371171786214</v>
+        <v>3.819319351392349</v>
       </c>
       <c r="G84">
         <v>2.31906979058428</v>
@@ -3140,7 +3140,7 @@
         <v>-2.205623585545855</v>
       </c>
       <c r="I84">
-        <v>13.97987131364672</v>
+        <v>14.1970353326795</v>
       </c>
     </row>
     <row r="85">
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>5.413203250731431</v>
+        <v>3.779861182755206</v>
       </c>
       <c r="F85">
-        <v>5.015513503759714</v>
+        <v>4.664254619100631</v>
       </c>
       <c r="G85">
         <v>-0.5073236800666964</v>
@@ -3173,7 +3173,7 @@
         <v>-0.6537520414966955</v>
       </c>
       <c r="I85">
-        <v>6.574278972294823</v>
+        <v>4.940936904318598</v>
       </c>
     </row>
     <row r="86">
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-0.8156161758714291</v>
+        <v>-3.063399564444808</v>
       </c>
       <c r="F86">
-        <v>4.688378652546478</v>
+        <v>3.77800270442172</v>
       </c>
       <c r="G86">
         <v>0.20079346384812</v>
@@ -3203,7 +3203,7 @@
         <v>-0.3682804751894168</v>
       </c>
       <c r="I86">
-        <v>-0.6481291645301323</v>
+        <v>-2.895912553103511</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-0.1499667460020169</v>
+        <v>-1.615365102126852</v>
       </c>
       <c r="F87">
-        <v>4.635234461885784</v>
+        <v>3.352894513475369</v>
       </c>
       <c r="G87">
         <v>-0.4326739975981833</v>
@@ -3233,7 +3233,7 @@
         <v>0.1636240993943216</v>
       </c>
       <c r="I87">
-        <v>0.1190831522018448</v>
+        <v>-1.346315203922991</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-6.536699934543177</v>
+        <v>-2.771665568381904</v>
       </c>
       <c r="F88">
-        <v>-0.5222699014212968</v>
+        <v>-0.9176422630495877</v>
       </c>
       <c r="G88">
         <v>-0.6709843528819649</v>
@@ -3263,7 +3263,7 @@
         <v>0.2530881761718929</v>
       </c>
       <c r="I88">
-        <v>-6.118803757833104</v>
+        <v>-2.353769391671832</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.450919954238284</v>
+        <v>-3.068957521519329</v>
       </c>
       <c r="F89">
-        <v>-2.738300702663726</v>
+        <v>-2.629846939118222</v>
       </c>
       <c r="G89">
         <v>-0.1175485603499245</v>
@@ -3293,7 +3293,7 @@
         <v>-0.1587125613039996</v>
       </c>
       <c r="I89">
-        <v>-3.17465883258436</v>
+        <v>-2.792696399865405</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-1.726211420669371</v>
+        <v>-2.174923631292414</v>
       </c>
       <c r="F90">
-        <v>-2.965949513863211</v>
+        <v>-2.407727955830123</v>
       </c>
       <c r="G90">
-        <v>-0.1571464430805448</v>
+        <v>-0.1571464430805447</v>
       </c>
       <c r="H90">
         <v>0.03537450785307342</v>
       </c>
       <c r="I90">
-        <v>-1.6044394854419</v>
+        <v>-2.053151696064942</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-0.8469180459635852</v>
+        <v>-1.043912664887562</v>
       </c>
       <c r="F91">
-        <v>-3.140187338853603</v>
+        <v>-2.2648648465203</v>
       </c>
       <c r="G91">
         <v>-0.1481602573195862</v>
@@ -3353,7 +3353,7 @@
         <v>0.09121439988336716</v>
       </c>
       <c r="I91">
-        <v>-0.7899721885273662</v>
+        <v>-0.9869668074513429</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.453668428365556</v>
+        <v>-1.939402908739795</v>
       </c>
       <c r="F92">
-        <v>-1.869429462309198</v>
+        <v>-2.056799181609773</v>
       </c>
       <c r="G92">
         <v>-0.04498005828145774</v>
@@ -3383,7 +3383,7 @@
         <v>-0.0124802458074785</v>
       </c>
       <c r="I92">
-        <v>-1.396208124276619</v>
+        <v>-1.881942604650859</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.8000418277225496</v>
+        <v>-0.5896341916025313</v>
       </c>
       <c r="F93">
-        <v>-1.206709930680264</v>
+        <v>-1.436968349130574</v>
       </c>
       <c r="G93">
         <v>-0.02176260558866694</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07385186464188666</v>
       </c>
       <c r="I93">
-        <v>-0.704427357491996</v>
+        <v>-0.4940197213719776</v>
       </c>
     </row>
   </sheetData>

--- a/results/11-2020/fim_interactive.xlsx
+++ b/results/11-2020/fim_interactive.xlsx
@@ -464,7 +464,7 @@
         <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439163</v>
+        <v>0.03883989562439164</v>
       </c>
       <c r="I3">
         <v>-0.6148047939177821</v>
@@ -530,7 +530,7 @@
         <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135496</v>
+        <v>-0.2606953291135497</v>
       </c>
       <c r="I5">
         <v>-0.09262969992397241</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552930265269574</v>
+        <v>1.552930265269575</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801012</v>
+        <v>-0.2574736546801013</v>
       </c>
       <c r="I14">
         <v>1.099500608368954</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.13459701519691</v>
+        <v>1.134597015196911</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>0.6747978935539617</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597878</v>
+        <v>-0.4041200882597879</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
@@ -1382,7 +1382,7 @@
         <v>-0.5940432398129916</v>
       </c>
       <c r="F31">
-        <v>-0.6408611199915289</v>
+        <v>-0.640861119991529</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.73952350682038</v>
+        <v>2.739523506820381</v>
       </c>
       <c r="F41">
         <v>2.692089184251138</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.341079119665709</v>
+        <v>2.34107911966571</v>
       </c>
     </row>
     <row r="43">
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.03353482318651</v>
+        <v>1.033534823186511</v>
       </c>
     </row>
     <row r="46">
@@ -1910,7 +1910,7 @@
         <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.04523267965381061</v>
+        <v>0.04523267965381062</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1935898474220352</v>
+        <v>-0.1935898474220353</v>
       </c>
     </row>
     <row r="63">
@@ -2672,7 +2672,7 @@
         <v>-0.1121258028506511</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613492</v>
+        <v>-0.1469082386613493</v>
       </c>
       <c r="H70">
         <v>0.05240041216595906</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08822827891038452</v>
+        <v>0.08822827891038453</v>
       </c>
     </row>
     <row r="73">
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03946169552298145</v>
+        <v>0.03946169552298146</v>
       </c>
       <c r="F74">
         <v>-0.0811218478370582</v>
@@ -2900,7 +2900,7 @@
         <v>0.1652983376755857</v>
       </c>
       <c r="F77">
-        <v>0.1626283289283671</v>
+        <v>0.1626283289283672</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -3065,7 +3065,7 @@
         <v>0.4816080942708365</v>
       </c>
       <c r="F82">
-        <v>0.426774864814927</v>
+        <v>0.4267748648149271</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.31048153771792</v>
+        <v>14.31048153771793</v>
       </c>
       <c r="F84">
         <v>3.819319351392349</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.779861182755206</v>
+        <v>3.778604641253938</v>
       </c>
       <c r="F85">
-        <v>4.664254619100631</v>
+        <v>4.663940483725313</v>
       </c>
       <c r="G85">
         <v>-0.5073236800666964</v>
@@ -3173,7 +3173,7 @@
         <v>-0.6537520414966955</v>
       </c>
       <c r="I85">
-        <v>4.940936904318598</v>
+        <v>4.93968036281733</v>
       </c>
     </row>
     <row r="86">
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.063399564444808</v>
+        <v>-3.065722918839948</v>
       </c>
       <c r="F86">
-        <v>3.77800270442172</v>
+        <v>3.777107730447617</v>
       </c>
       <c r="G86">
         <v>0.20079346384812</v>
@@ -3203,7 +3203,7 @@
         <v>-0.3682804751894168</v>
       </c>
       <c r="I86">
-        <v>-2.895912553103511</v>
+        <v>-2.898235907498652</v>
       </c>
     </row>
     <row r="87">
@@ -3221,10 +3221,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-1.615365102126852</v>
+        <v>-1.61870889521577</v>
       </c>
       <c r="F87">
-        <v>3.352894513475369</v>
+        <v>3.351163591229037</v>
       </c>
       <c r="G87">
         <v>-0.4326739975981833</v>
@@ -3233,7 +3233,7 @@
         <v>0.1636240993943216</v>
       </c>
       <c r="I87">
-        <v>-1.346315203922991</v>
+        <v>-1.349658997011909</v>
       </c>
     </row>
     <row r="88">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.771665568381904</v>
+        <v>-2.775808604688196</v>
       </c>
       <c r="F88">
-        <v>-0.9176422630495877</v>
+        <v>-0.9204089443724932</v>
       </c>
       <c r="G88">
         <v>-0.6709843528819649</v>
@@ -3263,7 +3263,7 @@
         <v>0.2530881761718929</v>
       </c>
       <c r="I88">
-        <v>-2.353769391671832</v>
+        <v>-2.357912427978123</v>
       </c>
     </row>
     <row r="89">
@@ -3281,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.068957521519329</v>
+        <v>-3.072587706092993</v>
       </c>
       <c r="F89">
-        <v>-2.629846939118222</v>
+        <v>-2.633207031209226</v>
       </c>
       <c r="G89">
         <v>-0.1175485603499245</v>
@@ -3293,7 +3293,7 @@
         <v>-0.1587125613039996</v>
       </c>
       <c r="I89">
-        <v>-2.792696399865405</v>
+        <v>-2.796326584439069</v>
       </c>
     </row>
     <row r="90">
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.174923631292414</v>
+        <v>-2.176961391123295</v>
       </c>
       <c r="F90">
-        <v>-2.407727955830123</v>
+        <v>-2.411016649280063</v>
       </c>
       <c r="G90">
         <v>-0.1571464430805447</v>
@@ -3323,7 +3323,7 @@
         <v>0.03537450785307342</v>
       </c>
       <c r="I90">
-        <v>-2.053151696064942</v>
+        <v>-2.055189455895823</v>
       </c>
     </row>
     <row r="91">
@@ -3341,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-1.043912664887562</v>
+        <v>-1.044746300494312</v>
       </c>
       <c r="F91">
-        <v>-2.2648648465203</v>
+        <v>-2.267526000599698</v>
       </c>
       <c r="G91">
         <v>-0.1481602573195862</v>
@@ -3353,7 +3353,7 @@
         <v>0.09121439988336716</v>
       </c>
       <c r="I91">
-        <v>-0.9869668074513429</v>
+        <v>-0.9878004430580928</v>
       </c>
     </row>
     <row r="92">
@@ -3371,10 +3371,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.939402908739795</v>
+        <v>-1.939381019320358</v>
       </c>
       <c r="F92">
-        <v>-2.056799181609773</v>
+        <v>-2.058419104257739</v>
       </c>
       <c r="G92">
         <v>-0.04498005828145774</v>
@@ -3383,7 +3383,7 @@
         <v>-0.0124802458074785</v>
       </c>
       <c r="I92">
-        <v>-1.881942604650859</v>
+        <v>-1.881920715231421</v>
       </c>
     </row>
     <row r="93">
@@ -3401,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.5896341916025313</v>
+        <v>-0.5893346741417274</v>
       </c>
       <c r="F93">
-        <v>-1.436968349130574</v>
+        <v>-1.437605846269922</v>
       </c>
       <c r="G93">
         <v>-0.02176260558866694</v>
@@ -3413,7 +3413,7 @@
         <v>-0.07385186464188666</v>
       </c>
       <c r="I93">
-        <v>-0.4940197213719776</v>
+        <v>-0.4937202039111737</v>
       </c>
     </row>
   </sheetData>

--- a/results/11-2020/fim_interactive.xlsx
+++ b/results/11-2020/fim_interactive.xlsx
@@ -422,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04873127066753441</v>
+        <v>-0.04932278832823928</v>
       </c>
       <c r="F2">
-        <v>-0.4472294074885929</v>
+        <v>-0.4469858474916468</v>
       </c>
       <c r="G2">
         <v>0.2318136940835876</v>
@@ -434,7 +434,7 @@
         <v>0.1384476835461522</v>
       </c>
       <c r="I2">
-        <v>-0.4189926482972742</v>
+        <v>-0.419584165957979</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.88755655971204</v>
+        <v>-1.889666396925633</v>
       </c>
       <c r="F3">
-        <v>-0.7456669684567119</v>
+        <v>-0.7463849117283146</v>
       </c>
       <c r="G3">
         <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439164</v>
+        <v>0.03883989562439163</v>
       </c>
       <c r="I3">
-        <v>-0.6148047939177821</v>
+        <v>-0.6169146311313748</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3090944267481067</v>
+        <v>-0.3089450243958607</v>
       </c>
       <c r="F4">
-        <v>-0.6103231932502594</v>
+        <v>-0.6109690798429839</v>
       </c>
       <c r="G4">
         <v>0.4707108944060808</v>
@@ -500,7 +500,7 @@
         <v>-0.5107329829851925</v>
       </c>
       <c r="I4">
-        <v>-0.2690723381689949</v>
+        <v>-0.268922935816749</v>
       </c>
     </row>
     <row r="5">
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.107555438830284</v>
+        <v>-1.107596038569778</v>
       </c>
       <c r="F5">
-        <v>-0.8382344239894907</v>
+        <v>-0.8388825620548781</v>
       </c>
       <c r="G5">
         <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135497</v>
+        <v>-0.2606953291135496</v>
       </c>
       <c r="I5">
-        <v>-0.09262969992397241</v>
+        <v>-0.09267029966346674</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2185905956505214</v>
+        <v>-0.2174362895015348</v>
       </c>
       <c r="F6">
-        <v>-0.8806992552352374</v>
+        <v>-0.880910937348202</v>
       </c>
       <c r="G6">
         <v>0.03794677656077419</v>
@@ -566,7 +566,7 @@
         <v>-0.2790588276696364</v>
       </c>
       <c r="I6">
-        <v>0.02252145545834081</v>
+        <v>0.02367576160732738</v>
       </c>
     </row>
     <row r="7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6910360014545981</v>
+        <v>0.6916906192687385</v>
       </c>
       <c r="F7">
-        <v>-0.2360511149435778</v>
+        <v>-0.2355716832996092</v>
       </c>
       <c r="G7">
         <v>0.4176699769362638</v>
@@ -599,7 +599,7 @@
         <v>0.03463379122030326</v>
       </c>
       <c r="I7">
-        <v>0.238732233298031</v>
+        <v>0.2393868511121715</v>
       </c>
     </row>
     <row r="8">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.027385345497273</v>
+        <v>1.028743299593723</v>
       </c>
       <c r="F8">
-        <v>0.0980688281177672</v>
+        <v>0.09885039769778682</v>
       </c>
       <c r="G8">
         <v>0.3854233068740954</v>
@@ -632,7 +632,7 @@
         <v>0.2634165840868962</v>
       </c>
       <c r="I8">
-        <v>0.3785454545362815</v>
+        <v>0.3799034086327318</v>
       </c>
     </row>
     <row r="9">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.801022958330558</v>
+        <v>0.8009557549500425</v>
       </c>
       <c r="F9">
-        <v>0.5752134274079777</v>
+        <v>0.575988346077742</v>
       </c>
       <c r="G9">
         <v>-0.3246051547334287</v>
@@ -665,7 +665,7 @@
         <v>-0.3447600652268802</v>
       </c>
       <c r="I9">
-        <v>1.470388178290867</v>
+        <v>1.470320974910351</v>
       </c>
     </row>
     <row r="10">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.92051494273168</v>
+        <v>1.919839734374504</v>
       </c>
       <c r="F10">
-        <v>1.109989812003528</v>
+        <v>1.110307352046752</v>
       </c>
       <c r="G10">
         <v>0.1230989010896827</v>
@@ -698,7 +698,7 @@
         <v>0.5335658662608733</v>
       </c>
       <c r="I10">
-        <v>1.263850175381124</v>
+        <v>1.263174967023948</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.285535806575335</v>
+        <v>2.285342222525221</v>
       </c>
       <c r="F11">
-        <v>1.508614763283712</v>
+        <v>1.508720252860872</v>
       </c>
       <c r="G11">
         <v>1.052245127335171</v>
@@ -731,7 +731,7 @@
         <v>-0.2965791441100969</v>
       </c>
       <c r="I11">
-        <v>1.529869823350261</v>
+        <v>1.529676239300148</v>
       </c>
     </row>
     <row r="12">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.931644997024508</v>
+        <v>1.931965411866221</v>
       </c>
       <c r="F12">
-        <v>1.734679676165521</v>
+        <v>1.734525780928997</v>
       </c>
       <c r="G12">
         <v>0.3185676646894323</v>
@@ -764,7 +764,7 @@
         <v>-0.2595992058963156</v>
       </c>
       <c r="I12">
-        <v>1.872676538231392</v>
+        <v>1.872996953073104</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.443739216222842</v>
+        <v>1.443771624297853</v>
       </c>
       <c r="F13">
-        <v>1.895358740638592</v>
+        <v>1.895229748265949</v>
       </c>
       <c r="G13">
         <v>-0.08532620047935681</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552930265269575</v>
+        <v>1.552962673344586</v>
       </c>
     </row>
     <row r="14">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.187712274604291</v>
+        <v>1.188166172820331</v>
       </c>
       <c r="F14">
-        <v>1.712158073606745</v>
+        <v>1.712311357877406</v>
       </c>
       <c r="G14">
         <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801013</v>
+        <v>-0.2574736546801012</v>
       </c>
       <c r="I14">
-        <v>1.099500608368954</v>
+        <v>1.099954506584995</v>
       </c>
     </row>
     <row r="15">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7133263378476467</v>
+        <v>0.7128131158019653</v>
       </c>
       <c r="F15">
-        <v>1.319105706424823</v>
+        <v>1.319179081196592</v>
       </c>
       <c r="G15">
         <v>0.0406776650144408</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.134597015196911</v>
+        <v>1.134083793151229</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.385299507138876</v>
+        <v>1.38384912093355</v>
       </c>
       <c r="F16">
-        <v>1.182519333953415</v>
+        <v>1.182150008463424</v>
       </c>
       <c r="G16">
         <v>1.665594538201976</v>
@@ -896,7 +896,7 @@
         <v>-1.43490081457891</v>
       </c>
       <c r="I16">
-        <v>1.154605783515809</v>
+        <v>1.153155397310484</v>
       </c>
     </row>
     <row r="17">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5884807197534302</v>
+        <v>0.5882778225287952</v>
       </c>
       <c r="F17">
-        <v>0.9687047098360617</v>
+        <v>0.9682765580211596</v>
       </c>
       <c r="G17">
         <v>-0.7323423591140148</v>
@@ -929,7 +929,7 @@
         <v>0.3998565275949437</v>
       </c>
       <c r="I17">
-        <v>0.9209665512725013</v>
+        <v>0.9207636540478663</v>
       </c>
     </row>
     <row r="18">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6483471362496426</v>
+        <v>0.6484157767578571</v>
       </c>
       <c r="F18">
-        <v>0.8338634252473998</v>
+        <v>0.8333389590055411</v>
       </c>
       <c r="G18">
         <v>0.5092651698143085</v>
@@ -962,7 +962,7 @@
         <v>-0.546989131172936</v>
       </c>
       <c r="I18">
-        <v>0.6860710976082701</v>
+        <v>0.6861397381164847</v>
       </c>
     </row>
     <row r="19">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07706421107389419</v>
+        <v>0.07736815158605984</v>
       </c>
       <c r="F19">
-        <v>0.6747978935539617</v>
+        <v>0.6744777179515649</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597879</v>
+        <v>-0.4041200882597878</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
       </c>
       <c r="I19">
-        <v>0.24761480180424</v>
+        <v>0.2479187423164056</v>
       </c>
     </row>
     <row r="20">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1197440912471906</v>
+        <v>-0.1204265298871156</v>
       </c>
       <c r="F20">
-        <v>0.2985369939574451</v>
+        <v>0.2984088052463984</v>
       </c>
       <c r="G20">
         <v>-0.2813714609987538</v>
@@ -1028,7 +1028,7 @@
         <v>-0.03567393639946731</v>
       </c>
       <c r="I20">
-        <v>0.1973013061510305</v>
+        <v>0.1966188675111055</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.4654912699649514</v>
+        <v>-0.4655468536569111</v>
       </c>
       <c r="F21">
-        <v>0.0350439965278497</v>
+        <v>0.03495263619997183</v>
       </c>
       <c r="G21">
         <v>0.3398770253391276</v>
@@ -1061,7 +1061,7 @@
         <v>-0.7314416061911453</v>
       </c>
       <c r="I21">
-        <v>-0.07392668911293369</v>
+        <v>-0.07398227280489336</v>
       </c>
     </row>
     <row r="22">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.6667320013633891</v>
+        <v>-0.66597156096414</v>
       </c>
       <c r="F22">
-        <v>-0.2937257878754082</v>
+        <v>-0.2936441982305275</v>
       </c>
       <c r="G22">
         <v>-0.3550314415416719</v>
@@ -1094,7 +1094,7 @@
         <v>-0.2307444377000993</v>
       </c>
       <c r="I22">
-        <v>-0.080956122121618</v>
+        <v>-0.08019568172236891</v>
       </c>
     </row>
     <row r="23">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6360786025057481</v>
+        <v>-0.6363277001230021</v>
       </c>
       <c r="F23">
-        <v>-0.4720114912703188</v>
+        <v>-0.4720681611577929</v>
       </c>
       <c r="G23">
         <v>0.02168388493087975</v>
@@ -1127,7 +1127,7 @@
         <v>-0.1581741428903265</v>
       </c>
       <c r="I23">
-        <v>-0.4995883445463014</v>
+        <v>-0.4998374421635554</v>
       </c>
     </row>
     <row r="24">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.059035740127722</v>
+        <v>-1.059191424855756</v>
       </c>
       <c r="F24">
-        <v>-0.7068344034904516</v>
+        <v>-0.7067593848999529</v>
       </c>
       <c r="G24">
         <v>-0.2701579859382386</v>
@@ -1160,7 +1160,7 @@
         <v>-0.2764818884085525</v>
       </c>
       <c r="I24">
-        <v>-0.5123958657809304</v>
+        <v>-0.5125515505089645</v>
       </c>
     </row>
     <row r="25">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7633323808550926</v>
+        <v>-0.7625094549814095</v>
       </c>
       <c r="F25">
-        <v>-0.7812946812129868</v>
+        <v>-0.7810000352310775</v>
       </c>
       <c r="G25">
         <v>-0.1071728628412014</v>
@@ -1193,7 +1193,7 @@
         <v>-0.1249180002665537</v>
       </c>
       <c r="I25">
-        <v>-0.5312415177473375</v>
+        <v>-0.5304185918736545</v>
       </c>
     </row>
     <row r="26">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.868496698635547</v>
+        <v>-0.8686373311051071</v>
       </c>
       <c r="F26">
-        <v>-0.8317358555310264</v>
+        <v>-0.8316664777663193</v>
       </c>
       <c r="G26">
         <v>-0.2767950136222138</v>
@@ -1226,7 +1226,7 @@
         <v>-0.1302645945694583</v>
       </c>
       <c r="I26">
-        <v>-0.4614370904438749</v>
+        <v>-0.461577722913435</v>
       </c>
     </row>
     <row r="27">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08904151706259766</v>
+        <v>-0.08933197463653653</v>
       </c>
       <c r="F27">
-        <v>-0.6949765841702387</v>
+        <v>-0.6949175463947028</v>
       </c>
       <c r="G27">
         <v>0.6877869103813896</v>
@@ -1259,7 +1259,7 @@
         <v>-0.1683661652429188</v>
       </c>
       <c r="I27">
-        <v>-0.6084622622010686</v>
+        <v>-0.6087527197750074</v>
       </c>
     </row>
     <row r="28">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.121428329652999</v>
+        <v>-1.121362038847531</v>
       </c>
       <c r="F28">
-        <v>-0.710574731551558</v>
+        <v>-0.7104601998926466</v>
       </c>
       <c r="G28">
         <v>-0.4905032062218124</v>
@@ -1292,7 +1292,7 @@
         <v>0.03320395040116637</v>
       </c>
       <c r="I28">
-        <v>-0.6641290738323532</v>
+        <v>-0.664062783026885</v>
       </c>
     </row>
     <row r="29">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8023196183270442</v>
+        <v>-0.8025841134312768</v>
       </c>
       <c r="F29">
-        <v>-0.720321540919546</v>
+        <v>-0.7204788645051134</v>
       </c>
       <c r="G29">
         <v>-0.6627889888787315</v>
@@ -1325,7 +1325,7 @@
         <v>0.1395514339167008</v>
       </c>
       <c r="I29">
-        <v>-0.2790820633650136</v>
+        <v>-0.2793465584692461</v>
       </c>
     </row>
     <row r="30">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04565329217308461</v>
+        <v>-0.04497306661156075</v>
       </c>
       <c r="F30">
-        <v>-0.5146106893039304</v>
+        <v>-0.5145627983817269</v>
       </c>
       <c r="G30">
         <v>0.0405326156052338</v>
@@ -1358,7 +1358,7 @@
         <v>0.202729765204821</v>
       </c>
       <c r="I30">
-        <v>-0.2889156729831394</v>
+        <v>-0.2882354474216156</v>
       </c>
     </row>
     <row r="31">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.5940432398129916</v>
+        <v>-0.5945145374658474</v>
       </c>
       <c r="F31">
-        <v>-0.640861119991529</v>
+        <v>-0.6408584390890546</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1391,7 +1391,7 @@
         <v>0.1914173671366676</v>
       </c>
       <c r="I31">
-        <v>-0.3372467690961448</v>
+        <v>-0.3377180667490006</v>
       </c>
     </row>
     <row r="32">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04940884206564261</v>
+        <v>0.04949840875269429</v>
       </c>
       <c r="F32">
-        <v>-0.3481518270618685</v>
+        <v>-0.3481433271889983</v>
       </c>
       <c r="G32">
         <v>0.6845768143843559</v>
@@ -1424,7 +1424,7 @@
         <v>-0.3565550164851028</v>
       </c>
       <c r="I32">
-        <v>-0.2786129558336105</v>
+        <v>-0.2785233891465588</v>
       </c>
     </row>
     <row r="33">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06787364306475245</v>
+        <v>-0.06747215153773298</v>
       </c>
       <c r="F33">
-        <v>-0.1645403332462955</v>
+        <v>-0.1643653367156124</v>
       </c>
       <c r="G33">
         <v>-0.08640542978502515</v>
@@ -1457,7 +1457,7 @@
         <v>0.06632580721215653</v>
       </c>
       <c r="I33">
-        <v>-0.04779402049188383</v>
+        <v>-0.04739252896486435</v>
       </c>
     </row>
     <row r="34">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2930068653878942</v>
+        <v>0.2925968720771208</v>
       </c>
       <c r="F34">
-        <v>-0.07987529385605083</v>
+        <v>-0.07997285204344198</v>
       </c>
       <c r="G34">
         <v>0.134181683212793</v>
@@ -1490,7 +1490,7 @@
         <v>0.1080155521227334</v>
       </c>
       <c r="I34">
-        <v>0.05080963005236774</v>
+        <v>0.05039963674159439</v>
       </c>
     </row>
     <row r="35">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.05500495643226036</v>
+        <v>-0.05470159743612268</v>
       </c>
       <c r="F35">
-        <v>0.05488427698913198</v>
+        <v>0.05498038296398919</v>
       </c>
       <c r="G35">
         <v>0.3175547462742406</v>
@@ -1523,7 +1523,7 @@
         <v>-0.5011733566315455</v>
       </c>
       <c r="I35">
-        <v>0.1286136539250445</v>
+        <v>0.1289170129211822</v>
       </c>
     </row>
     <row r="36">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2.604355249890733</v>
+        <v>2.604105573262943</v>
       </c>
       <c r="F36">
-        <v>0.6936208789454045</v>
+        <v>0.6936321740915514</v>
       </c>
       <c r="G36">
         <v>0.5310600703908137</v>
@@ -1556,7 +1556,7 @@
         <v>-0.1974623965262828</v>
       </c>
       <c r="I36">
-        <v>2.270757576026202</v>
+        <v>2.270507899398412</v>
       </c>
     </row>
     <row r="37">
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.413474371904715</v>
+        <v>1.412453084073397</v>
       </c>
       <c r="F37">
-        <v>1.063957882687771</v>
+        <v>1.063613482994334</v>
       </c>
       <c r="G37">
         <v>-0.002758138597635018</v>
@@ -1589,7 +1589,7 @@
         <v>0.3093434144177715</v>
       </c>
       <c r="I37">
-        <v>1.106889096084578</v>
+        <v>1.105867808253261</v>
       </c>
     </row>
     <row r="38">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.632737114848934</v>
+        <v>1.633001091925851</v>
       </c>
       <c r="F38">
-        <v>1.398890445053031</v>
+        <v>1.398714537956517</v>
       </c>
       <c r="G38">
         <v>0.5136971469729917</v>
@@ -1622,7 +1622,7 @@
         <v>-0.2960053567725832</v>
       </c>
       <c r="I38">
-        <v>1.415045324648525</v>
+        <v>1.415309301725443</v>
       </c>
     </row>
     <row r="39">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.532145216423655</v>
+        <v>3.532122308897292</v>
       </c>
       <c r="F39">
-        <v>2.29567798826701</v>
+        <v>2.295420514539871</v>
       </c>
       <c r="G39">
         <v>0.1830775014705948</v>
@@ -1655,7 +1655,7 @@
         <v>0.4338389778553179</v>
       </c>
       <c r="I39">
-        <v>2.915228737097742</v>
+        <v>2.915205829571379</v>
       </c>
     </row>
     <row r="40">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.86395089891158</v>
+        <v>2.864287839047667</v>
       </c>
       <c r="F40">
-        <v>2.360576900522222</v>
+        <v>2.360466080986052</v>
       </c>
       <c r="G40">
         <v>1.644181498240886</v>
@@ -1688,7 +1688,7 @@
         <v>-0.7074856204578588</v>
       </c>
       <c r="I40">
-        <v>1.927255021128552</v>
+        <v>1.92759196126464</v>
       </c>
     </row>
     <row r="41">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.739523506820381</v>
+        <v>2.739702111884473</v>
       </c>
       <c r="F41">
-        <v>2.692089184251138</v>
+        <v>2.692278337938821</v>
       </c>
       <c r="G41">
         <v>0.4214418425158024</v>
@@ -1721,7 +1721,7 @@
         <v>-0.44606518048123</v>
       </c>
       <c r="I41">
-        <v>2.764146844785808</v>
+        <v>2.764325449849901</v>
       </c>
     </row>
     <row r="42">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.255680791332724</v>
+        <v>2.255849807384959</v>
       </c>
       <c r="F42">
-        <v>2.847825103372085</v>
+        <v>2.847990516803597</v>
       </c>
       <c r="G42">
         <v>0.6290059163210516</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.34107911966571</v>
+        <v>2.341248135717945</v>
       </c>
     </row>
     <row r="43">
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.494787064688244</v>
+        <v>1.495647569594783</v>
       </c>
       <c r="F43">
-        <v>2.338485565438233</v>
+        <v>2.33887183197797</v>
       </c>
       <c r="G43">
         <v>0.4901069572014474</v>
@@ -1787,7 +1787,7 @@
         <v>-1.063597864520708</v>
       </c>
       <c r="I43">
-        <v>2.068277972007504</v>
+        <v>2.069138476914044</v>
       </c>
     </row>
     <row r="44">
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.197042502772424</v>
+        <v>1.196798063428107</v>
       </c>
       <c r="F44">
-        <v>1.921758466403444</v>
+        <v>1.92199938807308</v>
       </c>
       <c r="G44">
         <v>0.4203095613777605</v>
@@ -1820,7 +1820,7 @@
         <v>-0.37639879104271</v>
       </c>
       <c r="I44">
-        <v>1.153131732437373</v>
+        <v>1.152887293093057</v>
       </c>
     </row>
     <row r="45">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1913936891530983</v>
+        <v>0.1911591396440102</v>
       </c>
       <c r="F45">
-        <v>1.284726011986623</v>
+        <v>1.284863645012964</v>
       </c>
       <c r="G45">
         <v>0.08455124436341505</v>
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.033534823186511</v>
+        <v>1.033300273677422</v>
       </c>
     </row>
     <row r="46">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2280491170529774</v>
+        <v>0.2279892483689395</v>
       </c>
       <c r="F46">
-        <v>0.7778180934166865</v>
+        <v>0.7778985052589592</v>
       </c>
       <c r="G46">
         <v>-0.7063634794243945</v>
@@ -1886,7 +1886,7 @@
         <v>-0.08829624979960171</v>
       </c>
       <c r="I46">
-        <v>1.022708846276974</v>
+        <v>1.022648977592936</v>
       </c>
     </row>
     <row r="47">
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.43555459036326</v>
+        <v>-1.43528819058441</v>
       </c>
       <c r="F47">
-        <v>0.04523267965381062</v>
+        <v>0.04516456521416112</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -1919,7 +1919,7 @@
         <v>-0.5207276274948131</v>
       </c>
       <c r="I47">
-        <v>-0.1356427308375739</v>
+        <v>-0.1353763310587236</v>
       </c>
     </row>
     <row r="48">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.317036575972883</v>
+        <v>-1.317189124701745</v>
       </c>
       <c r="F48">
-        <v>-0.5832870900325162</v>
+        <v>-0.5833322318183018</v>
       </c>
       <c r="G48">
         <v>-0.1791826590862452</v>
@@ -1952,7 +1952,7 @@
         <v>-0.6686679888322142</v>
       </c>
       <c r="I48">
-        <v>-0.4691859280544238</v>
+        <v>-0.4693384767832854</v>
       </c>
     </row>
     <row r="49">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.163708922374684</v>
+        <v>-2.162992892311451</v>
       </c>
       <c r="F49">
-        <v>-1.172062742914462</v>
+        <v>-1.171870239807167</v>
       </c>
       <c r="G49">
         <v>-1.410076980392139</v>
@@ -1985,7 +1985,7 @@
         <v>-0.05152418484441068</v>
       </c>
       <c r="I49">
-        <v>-0.702107757138134</v>
+        <v>-0.7013917270749013</v>
       </c>
     </row>
     <row r="50">
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.085197855429417</v>
+        <v>-1.084930329632481</v>
       </c>
       <c r="F50">
-        <v>-1.500374486035061</v>
+        <v>-1.500100134307522</v>
       </c>
       <c r="G50">
         <v>-0.2105533183890024</v>
@@ -2018,7 +2018,7 @@
         <v>-0.1404336047976929</v>
       </c>
       <c r="I50">
-        <v>-0.7342109322427215</v>
+        <v>-0.7339434064457862</v>
       </c>
     </row>
     <row r="51">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.457193229872469</v>
+        <v>-1.457288912263728</v>
       </c>
       <c r="F51">
-        <v>-1.505784145912363</v>
+        <v>-1.505600314727352</v>
       </c>
       <c r="G51">
         <v>-0.3909270564522251</v>
@@ -2051,7 +2051,7 @@
         <v>-0.2560200781047454</v>
       </c>
       <c r="I51">
-        <v>-0.8102460953154985</v>
+        <v>-0.8103417777067574</v>
       </c>
     </row>
     <row r="52">
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.283561786197312</v>
+        <v>-1.284356325970676</v>
       </c>
       <c r="F52">
-        <v>-1.49741544846847</v>
+        <v>-1.497392115044585</v>
       </c>
       <c r="G52">
         <v>-0.6442132037942118</v>
@@ -2084,7 +2084,7 @@
         <v>-0.06640099407624728</v>
       </c>
       <c r="I52">
-        <v>-0.5729475883268532</v>
+        <v>-0.5737421281002171</v>
       </c>
     </row>
     <row r="53">
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.8579113804721512</v>
+        <v>-0.8583302477527929</v>
       </c>
       <c r="F53">
-        <v>-1.170966062992837</v>
+        <v>-1.17122645390492</v>
       </c>
       <c r="G53">
         <v>-0.07052941796100387</v>
@@ -2117,7 +2117,7 @@
         <v>-0.3554763575157842</v>
       </c>
       <c r="I53">
-        <v>-0.4319056049953631</v>
+        <v>-0.4323244722760048</v>
       </c>
     </row>
     <row r="54">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.56608131674303</v>
+        <v>-1.565634900165805</v>
       </c>
       <c r="F54">
-        <v>-1.29118692832124</v>
+        <v>-1.291402596538251</v>
       </c>
       <c r="G54">
         <v>-0.8865916234440627</v>
@@ -2150,7 +2150,7 @@
         <v>-0.1832364051070537</v>
       </c>
       <c r="I54">
-        <v>-0.4962532881919139</v>
+        <v>-0.4958068716146886</v>
       </c>
     </row>
     <row r="55">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.783417405602018</v>
+        <v>-1.783417127555434</v>
       </c>
       <c r="F55">
-        <v>-1.372742972253627</v>
+        <v>-1.372934650361178</v>
       </c>
       <c r="G55">
         <v>-1.047790882965999</v>
@@ -2183,7 +2183,7 @@
         <v>0.04953696020514492</v>
       </c>
       <c r="I55">
-        <v>-0.7851634828411646</v>
+        <v>-0.78516320479458</v>
       </c>
     </row>
     <row r="56">
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.295826022465722</v>
+        <v>-1.295427428140189</v>
       </c>
       <c r="F56">
-        <v>-1.37580903132073</v>
+        <v>-1.375702425903556</v>
       </c>
       <c r="G56">
         <v>-0.3471829962638515</v>
@@ -2216,7 +2216,7 @@
         <v>-0.0966042891959619</v>
       </c>
       <c r="I56">
-        <v>-0.8520387370059082</v>
+        <v>-0.8516401426803758</v>
       </c>
     </row>
     <row r="57">
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.152891776480925</v>
+        <v>-1.152610993212792</v>
       </c>
       <c r="F57">
-        <v>-1.449554130322923</v>
+        <v>-1.449272612268556</v>
       </c>
       <c r="G57">
         <v>-0.6132388212289077</v>
@@ -2249,7 +2249,7 @@
         <v>-0.1028635192602457</v>
       </c>
       <c r="I57">
-        <v>-0.4367894359917712</v>
+        <v>-0.4365086527236389</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.384154271490635</v>
+        <v>-1.384226526985612</v>
       </c>
       <c r="F58">
-        <v>-1.404072369009824</v>
+        <v>-1.403920518973508</v>
       </c>
       <c r="G58">
         <v>-0.9172888700772799</v>
@@ -2282,7 +2282,7 @@
         <v>0.01540737794330799</v>
       </c>
       <c r="I58">
-        <v>-0.4822727793566633</v>
+        <v>-0.4823450348516403</v>
       </c>
     </row>
     <row r="59">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.297127733297142</v>
+        <v>-1.297272162778938</v>
       </c>
       <c r="F59">
-        <v>-1.282499950933605</v>
+        <v>-1.282384277779384</v>
       </c>
       <c r="G59">
         <v>-0.2587432465973415</v>
@@ -2315,7 +2315,7 @@
         <v>-0.3629080917018036</v>
       </c>
       <c r="I59">
-        <v>-0.6754763949979967</v>
+        <v>-0.6756208244797927</v>
       </c>
     </row>
     <row r="60">
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7502484479585195</v>
+        <v>-0.7507150353225633</v>
       </c>
       <c r="F60">
-        <v>-1.146105557306805</v>
+        <v>-1.146206179574977</v>
       </c>
       <c r="G60">
         <v>-0.09302646274323331</v>
@@ -2348,7 +2348,7 @@
         <v>-0.1298910337959616</v>
       </c>
       <c r="I60">
-        <v>-0.5273309514193246</v>
+        <v>-0.5277975387833684</v>
       </c>
     </row>
     <row r="61">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.1723529222894641</v>
+        <v>-0.1726286086756727</v>
       </c>
       <c r="F61">
-        <v>-0.9009708437589395</v>
+        <v>-0.9012105834406974</v>
       </c>
       <c r="G61">
         <v>0.03469619020211948</v>
@@ -2381,7 +2381,7 @@
         <v>0.1381184495505191</v>
       </c>
       <c r="I61">
-        <v>-0.3451675620421027</v>
+        <v>-0.3454432484283113</v>
       </c>
     </row>
     <row r="62">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.5414991552362339</v>
+        <v>-0.5422171705718358</v>
       </c>
       <c r="F62">
-        <v>-0.6903070646953393</v>
+        <v>-0.6907082443372532</v>
       </c>
       <c r="G62">
         <v>-0.8456653475137066</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1935898474220353</v>
+        <v>-0.1943078627576371</v>
       </c>
     </row>
     <row r="63">
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07521201813555149</v>
+        <v>0.07508084834374588</v>
       </c>
       <c r="F63">
-        <v>-0.347222126837166</v>
+        <v>-0.3476199915565823</v>
       </c>
       <c r="G63">
         <v>0.0488266565076218</v>
@@ -2447,7 +2447,7 @@
         <v>0.00794499122983091</v>
       </c>
       <c r="I63">
-        <v>0.01844037039809878</v>
+        <v>0.01830920060629317</v>
       </c>
     </row>
     <row r="64">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.286690415375635</v>
+        <v>0.2871956342159526</v>
       </c>
       <c r="F64">
-        <v>-0.08798741100362742</v>
+        <v>-0.08814232417195333</v>
       </c>
       <c r="G64">
         <v>-0.07135988355089964</v>
@@ -2480,7 +2480,7 @@
         <v>0.3696321006761685</v>
       </c>
       <c r="I64">
-        <v>-0.01158180174963387</v>
+        <v>-0.01107658290931631</v>
       </c>
     </row>
     <row r="65">
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.03462809556592961</v>
+        <v>0.0348932722193499</v>
       </c>
       <c r="F65">
-        <v>-0.036242156539779</v>
+        <v>-0.03626185394819768</v>
       </c>
       <c r="G65">
         <v>-0.04123200610439566</v>
@@ -2513,7 +2513,7 @@
         <v>0.05673608506707493</v>
       </c>
       <c r="I65">
-        <v>0.01912401660325034</v>
+        <v>0.01938919325667063</v>
       </c>
     </row>
     <row r="66">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1011811643181902</v>
+        <v>-0.1005819750487675</v>
       </c>
       <c r="F66">
-        <v>0.07383734118973195</v>
+        <v>0.0741469449325694</v>
       </c>
       <c r="G66">
         <v>0.1305714754136182</v>
@@ -2546,7 +2546,7 @@
         <v>-0.1739916507745391</v>
       </c>
       <c r="I66">
-        <v>-0.05776098895726919</v>
+        <v>-0.05716179968784655</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.3179058919803286</v>
+        <v>0.317607350645855</v>
       </c>
       <c r="F67">
-        <v>0.1345108096509262</v>
+        <v>0.1347785705080967</v>
       </c>
       <c r="G67">
         <v>-0.0095204543947928</v>
@@ -2579,7 +2579,7 @@
         <v>0.3618699123118419</v>
       </c>
       <c r="I67">
-        <v>-0.0344435659367205</v>
+        <v>-0.03474210727119406</v>
       </c>
     </row>
     <row r="68">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4745098658630824</v>
+        <v>-0.4746798065130151</v>
       </c>
       <c r="F68">
-        <v>-0.0557892606587531</v>
+        <v>-0.05569028967414523</v>
       </c>
       <c r="G68">
         <v>-0.2028730263807215</v>
@@ -2612,7 +2612,7 @@
         <v>-0.1980140598340873</v>
       </c>
       <c r="I68">
-        <v>-0.0736227796482735</v>
+        <v>-0.07379272029820626</v>
       </c>
     </row>
     <row r="69">
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09254941770088418</v>
+        <v>-0.09238412162976098</v>
       </c>
       <c r="F69">
-        <v>-0.08758363897545654</v>
+        <v>-0.08750963813642296</v>
       </c>
       <c r="G69">
         <v>-0.0594327661714883</v>
@@ -2645,7 +2645,7 @@
         <v>0.1054090751596382</v>
       </c>
       <c r="I69">
-        <v>-0.1385257266890341</v>
+        <v>-0.1383604306179109</v>
       </c>
     </row>
     <row r="70">
@@ -2666,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1993498198189684</v>
+        <v>-0.1990579218844226</v>
       </c>
       <c r="F70">
-        <v>-0.1121258028506511</v>
+        <v>-0.1121286248453367</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613493</v>
+        <v>-0.1469082386613492</v>
       </c>
       <c r="H70">
         <v>0.05240041216595906</v>
       </c>
       <c r="I70">
-        <v>-0.1048419933235782</v>
+        <v>-0.1045500953890324</v>
       </c>
     </row>
     <row r="71">
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2105616900593215</v>
+        <v>-0.2103550967322966</v>
       </c>
       <c r="F71">
-        <v>-0.2442426983605636</v>
+        <v>-0.2441192366898746</v>
       </c>
       <c r="G71">
         <v>-0.2842812308453224</v>
@@ -2711,7 +2711,7 @@
         <v>0.01102558298453079</v>
       </c>
       <c r="I71">
-        <v>0.0626939578014702</v>
+        <v>0.06290055112849507</v>
       </c>
     </row>
     <row r="72">
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07546623696688659</v>
+        <v>0.07533844586083796</v>
       </c>
       <c r="F72">
-        <v>-0.1067486726530714</v>
+        <v>-0.1066146735964113</v>
       </c>
       <c r="G72">
         <v>0.1101517719974749</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08822827891038453</v>
+        <v>0.08810048780433589</v>
       </c>
     </row>
     <row r="73">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2288536337787813</v>
+        <v>-0.2287256002259627</v>
       </c>
       <c r="F73">
-        <v>-0.1408247266725457</v>
+        <v>-0.1407000432454618</v>
       </c>
       <c r="G73">
         <v>-0.3642509696606954</v>
@@ -2777,7 +2777,7 @@
         <v>0.1086193414943325</v>
       </c>
       <c r="I73">
-        <v>0.02677799438758162</v>
+        <v>0.02690602794040024</v>
       </c>
     </row>
     <row r="74">
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03946169552298146</v>
+        <v>0.03959594375674771</v>
       </c>
       <c r="F74">
-        <v>-0.0811218478370582</v>
+        <v>-0.0810365768351692</v>
       </c>
       <c r="G74">
         <v>0.2237569875946429</v>
@@ -2810,7 +2810,7 @@
         <v>-0.02712450934502616</v>
       </c>
       <c r="I74">
-        <v>-0.1571707827266353</v>
+        <v>-0.157036534492869</v>
       </c>
     </row>
     <row r="75">
@@ -2831,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.01842065120159704</v>
+        <v>0.0181712003829638</v>
       </c>
       <c r="F75">
-        <v>-0.02387626252182858</v>
+        <v>-0.02390500255635411</v>
       </c>
       <c r="G75">
         <v>-0.01311419685234618</v>
@@ -2843,7 +2843,7 @@
         <v>-0.03836760891619392</v>
       </c>
       <c r="I75">
-        <v>0.06990245697013714</v>
+        <v>0.0696530061515039</v>
       </c>
     </row>
     <row r="76">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273326313133025</v>
+        <v>0.4273310033908086</v>
       </c>
       <c r="F76">
-        <v>0.06409033606477539</v>
+        <v>0.06409313682613854</v>
       </c>
       <c r="G76">
         <v>0.007741184328022455</v>
@@ -2876,7 +2876,7 @@
         <v>0.1820306418640798</v>
       </c>
       <c r="I76">
-        <v>0.2375608051212002</v>
+        <v>0.2375591771987063</v>
       </c>
     </row>
     <row r="77">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1652983376755857</v>
+        <v>0.1656468001724334</v>
       </c>
       <c r="F77">
-        <v>0.1626283289283672</v>
+        <v>0.1626862369257376</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -2909,7 +2909,7 @@
         <v>-0.0655278868595966</v>
       </c>
       <c r="I77">
-        <v>0.04760975275660094</v>
+        <v>0.04795821525344868</v>
       </c>
     </row>
     <row r="78">
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4280824757189858</v>
+        <v>-0.4280410883731992</v>
       </c>
       <c r="F78">
-        <v>0.04574228611787533</v>
+        <v>0.04577697889325084</v>
       </c>
       <c r="G78">
         <v>-0.0319629231639949</v>
@@ -2942,7 +2942,7 @@
         <v>-0.4472970132207758</v>
       </c>
       <c r="I78">
-        <v>0.05117746066578486</v>
+        <v>0.05121884801157155</v>
       </c>
     </row>
     <row r="79">
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.211407231042728</v>
+        <v>0.2109907177307189</v>
       </c>
       <c r="F79">
-        <v>0.09398893107815808</v>
+        <v>0.09398185823018962</v>
       </c>
       <c r="G79">
         <v>-0.1261415442716636</v>
@@ -2975,7 +2975,7 @@
         <v>0.234931818107759</v>
       </c>
       <c r="I79">
-        <v>0.1026169572066326</v>
+        <v>0.1022004438946236</v>
       </c>
     </row>
     <row r="80">
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6139640220240625</v>
+        <v>0.6139051435579954</v>
       </c>
       <c r="F80">
-        <v>0.1406467787558481</v>
+        <v>0.1406253932719863</v>
       </c>
       <c r="G80">
         <v>0.43627845986265</v>
@@ -3008,7 +3008,7 @@
         <v>0.1023935315640581</v>
       </c>
       <c r="I80">
-        <v>0.07529203059735448</v>
+        <v>0.07523315213128735</v>
       </c>
     </row>
     <row r="81">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4001201119220791</v>
+        <v>0.4001838849401698</v>
       </c>
       <c r="F81">
-        <v>0.1993522223174715</v>
+        <v>0.1992596644639204</v>
       </c>
       <c r="G81">
         <v>0.1698509031992773</v>
@@ -3041,7 +3041,7 @@
         <v>-0.117298132789972</v>
       </c>
       <c r="I81">
-        <v>0.3475673415127739</v>
+        <v>0.3476311145308645</v>
       </c>
     </row>
     <row r="82">
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.4816080942708365</v>
+        <v>0.4806702503234167</v>
       </c>
       <c r="F82">
-        <v>0.4267748648149271</v>
+        <v>0.4264374991380743</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3074,7 +3074,7 @@
         <v>-0.2466962259924505</v>
       </c>
       <c r="I82">
-        <v>0.3845934282517087</v>
+        <v>0.3836555843042889</v>
       </c>
     </row>
     <row r="83">
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.08506766165855074</v>
+        <v>0.08512296786821864</v>
       </c>
       <c r="F83">
-        <v>0.3951899724688828</v>
+        <v>0.3949705616724493</v>
       </c>
       <c r="G83">
         <v>-0.02351814460598127</v>
@@ -3107,7 +3107,7 @@
         <v>-0.07249663819006502</v>
       </c>
       <c r="I83">
-        <v>0.181082444454597</v>
+        <v>0.1811377506642649</v>
       </c>
     </row>
     <row r="84">
@@ -3128,19 +3128,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.31048153771793</v>
+        <v>14.30995993990337</v>
       </c>
       <c r="F84">
-        <v>3.819319351392349</v>
+        <v>3.818984260758794</v>
       </c>
       <c r="G84">
-        <v>2.31906979058428</v>
+        <v>13.5431724569603</v>
       </c>
       <c r="H84">
-        <v>-2.205623585545855</v>
+        <v>-13.42972625192188</v>
       </c>
       <c r="I84">
-        <v>14.1970353326795</v>
+        <v>14.19651373486495</v>
       </c>
     </row>
     <row r="85">
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.778604641253938</v>
+        <v>3.778452450136442</v>
       </c>
       <c r="F85">
-        <v>4.663940483725313</v>
+        <v>4.663551402057863</v>
       </c>
       <c r="G85">
-        <v>-0.5073236800666964</v>
+        <v>-14.00135327692795</v>
       </c>
       <c r="H85">
-        <v>-0.6537520414966955</v>
+        <v>12.84027755536455</v>
       </c>
       <c r="I85">
-        <v>4.93968036281733</v>
+        <v>4.939528171699834</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-3.065722918839948</v>
+        <v>-0.7484702393197009</v>
       </c>
       <c r="F86">
-        <v>3.777107730447617</v>
+        <v>4.356266279647083</v>
       </c>
       <c r="G86">
-        <v>0.20079346384812</v>
+        <v>-0.2556728698451678</v>
       </c>
       <c r="H86">
-        <v>-0.3682804751894168</v>
+        <v>0.08818585850387101</v>
       </c>
       <c r="I86">
-        <v>-2.898235907498652</v>
+        <v>-0.5809832279784041</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-1.61870889521577</v>
+        <v>0.3091232364041231</v>
       </c>
       <c r="F87">
-        <v>3.351163591229037</v>
+        <v>4.412266346781059</v>
       </c>
       <c r="G87">
-        <v>-0.4326739975981833</v>
+        <v>-0.4125729743443741</v>
       </c>
       <c r="H87">
-        <v>0.1636240993943216</v>
+        <v>0.1435230761405124</v>
       </c>
       <c r="I87">
-        <v>-1.349658997011909</v>
+        <v>0.5781731346079848</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-2.775808604688196</v>
+        <v>-1.21536068712779</v>
       </c>
       <c r="F88">
-        <v>-0.9204089443724932</v>
+        <v>0.5309361900232683</v>
       </c>
       <c r="G88">
-        <v>-0.6709843528819649</v>
+        <v>-0.4413344611392941</v>
       </c>
       <c r="H88">
-        <v>0.2530881761718929</v>
+        <v>0.02343828442922213</v>
       </c>
       <c r="I88">
-        <v>-2.357912427978123</v>
+        <v>-0.7974645104177175</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.072587706092993</v>
+        <v>-1.516292281821854</v>
       </c>
       <c r="F89">
-        <v>-2.633207031209226</v>
+        <v>-0.7927499929663057</v>
       </c>
       <c r="G89">
-        <v>-0.1175485603499245</v>
+        <v>-0.388192966708367</v>
       </c>
       <c r="H89">
-        <v>-0.1587125613039996</v>
+        <v>0.1119318450544428</v>
       </c>
       <c r="I89">
-        <v>-2.796326584439069</v>
+        <v>-1.24003116016793</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-2.176961391123295</v>
+        <v>-1.928824926219217</v>
       </c>
       <c r="F90">
-        <v>-2.411016649280063</v>
+        <v>-1.087838664691184</v>
       </c>
       <c r="G90">
-        <v>-0.1571464430805447</v>
+        <v>0.1340162546123547</v>
       </c>
       <c r="H90">
-        <v>0.03537450785307342</v>
+        <v>-0.255788189839826</v>
       </c>
       <c r="I90">
-        <v>-2.055189455895823</v>
+        <v>-1.807052990991745</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-1.044746300494312</v>
+        <v>-0.423142510523442</v>
       </c>
       <c r="F91">
-        <v>-2.267526000599698</v>
+        <v>-1.270905101423076</v>
       </c>
       <c r="G91">
-        <v>-0.1481602573195862</v>
+        <v>0.1485459750704547</v>
       </c>
       <c r="H91">
-        <v>0.09121439988336716</v>
+        <v>-0.2054918325066737</v>
       </c>
       <c r="I91">
-        <v>-0.9878004430580928</v>
+        <v>-0.3661966530872229</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.939381019320358</v>
+        <v>-1.008438099083801</v>
       </c>
       <c r="F92">
-        <v>-2.058419104257739</v>
+        <v>-1.219174454412078</v>
       </c>
       <c r="G92">
-        <v>-0.04498005828145774</v>
+        <v>0.1434629256086545</v>
       </c>
       <c r="H92">
-        <v>-0.0124802458074785</v>
+        <v>-0.2009232296975907</v>
       </c>
       <c r="I92">
-        <v>-1.881920715231421</v>
+        <v>-0.9509777949948648</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-0.5893346741417274</v>
+        <v>0.3657705776902921</v>
       </c>
       <c r="F93">
-        <v>-1.437605846269922</v>
+        <v>-0.7486587395340417</v>
       </c>
       <c r="G93">
-        <v>-0.02176260558866694</v>
+        <v>0.1721890068410809</v>
       </c>
       <c r="H93">
-        <v>-0.07385186464188666</v>
+        <v>-0.2678034770716344</v>
       </c>
       <c r="I93">
-        <v>-0.4937202039111737</v>
+        <v>0.4613850479208457</v>
       </c>
     </row>
   </sheetData>

--- a/results/11-2020/fim_interactive.xlsx
+++ b/results/11-2020/fim_interactive.xlsx
@@ -422,10 +422,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04932278832823928</v>
+        <v>-0.04873127066753441</v>
       </c>
       <c r="F2">
-        <v>-0.4469858474916468</v>
+        <v>-0.4472294074885929</v>
       </c>
       <c r="G2">
         <v>0.2318136940835876</v>
@@ -434,7 +434,7 @@
         <v>0.1384476835461522</v>
       </c>
       <c r="I2">
-        <v>-0.419584165957979</v>
+        <v>-0.4189926482972742</v>
       </c>
     </row>
     <row r="3">
@@ -455,19 +455,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-1.889666396925633</v>
+        <v>-1.88755655971204</v>
       </c>
       <c r="F3">
-        <v>-0.7463849117283146</v>
+        <v>-0.7456669684567119</v>
       </c>
       <c r="G3">
         <v>-1.31159166141865</v>
       </c>
       <c r="H3">
-        <v>0.03883989562439163</v>
+        <v>0.03883989562439164</v>
       </c>
       <c r="I3">
-        <v>-0.6169146311313748</v>
+        <v>-0.6148047939177821</v>
       </c>
     </row>
     <row r="4">
@@ -488,10 +488,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3089450243958607</v>
+        <v>-0.3090944267481067</v>
       </c>
       <c r="F4">
-        <v>-0.6109690798429839</v>
+        <v>-0.6103231932502594</v>
       </c>
       <c r="G4">
         <v>0.4707108944060808</v>
@@ -500,7 +500,7 @@
         <v>-0.5107329829851925</v>
       </c>
       <c r="I4">
-        <v>-0.268922935816749</v>
+        <v>-0.2690723381689949</v>
       </c>
     </row>
     <row r="5">
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.107596038569778</v>
+        <v>-1.107555438830284</v>
       </c>
       <c r="F5">
-        <v>-0.8388825620548781</v>
+        <v>-0.8382344239894907</v>
       </c>
       <c r="G5">
         <v>-0.7542304097927617</v>
       </c>
       <c r="H5">
-        <v>-0.2606953291135496</v>
+        <v>-0.2606953291135497</v>
       </c>
       <c r="I5">
-        <v>-0.09267029966346674</v>
+        <v>-0.09262969992397241</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-0.2174362895015348</v>
+        <v>-0.2185905956505214</v>
       </c>
       <c r="F6">
-        <v>-0.880910937348202</v>
+        <v>-0.8806992552352374</v>
       </c>
       <c r="G6">
         <v>0.03794677656077419</v>
@@ -566,7 +566,7 @@
         <v>-0.2790588276696364</v>
       </c>
       <c r="I6">
-        <v>0.02367576160732738</v>
+        <v>0.02252145545834081</v>
       </c>
     </row>
     <row r="7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.6916906192687385</v>
+        <v>0.6910360014545981</v>
       </c>
       <c r="F7">
-        <v>-0.2355716832996092</v>
+        <v>-0.2360511149435778</v>
       </c>
       <c r="G7">
         <v>0.4176699769362638</v>
@@ -599,7 +599,7 @@
         <v>0.03463379122030326</v>
       </c>
       <c r="I7">
-        <v>0.2393868511121715</v>
+        <v>0.238732233298031</v>
       </c>
     </row>
     <row r="8">
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.028743299593723</v>
+        <v>1.027385345497273</v>
       </c>
       <c r="F8">
-        <v>0.09885039769778682</v>
+        <v>0.0980688281177672</v>
       </c>
       <c r="G8">
         <v>0.3854233068740954</v>
@@ -632,7 +632,7 @@
         <v>0.2634165840868962</v>
       </c>
       <c r="I8">
-        <v>0.3799034086327318</v>
+        <v>0.3785454545362815</v>
       </c>
     </row>
     <row r="9">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8009557549500425</v>
+        <v>0.801022958330558</v>
       </c>
       <c r="F9">
-        <v>0.575988346077742</v>
+        <v>0.5752134274079777</v>
       </c>
       <c r="G9">
         <v>-0.3246051547334287</v>
@@ -665,7 +665,7 @@
         <v>-0.3447600652268802</v>
       </c>
       <c r="I9">
-        <v>1.470320974910351</v>
+        <v>1.470388178290867</v>
       </c>
     </row>
     <row r="10">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.919839734374504</v>
+        <v>1.92051494273168</v>
       </c>
       <c r="F10">
-        <v>1.110307352046752</v>
+        <v>1.109989812003528</v>
       </c>
       <c r="G10">
         <v>0.1230989010896827</v>
@@ -698,7 +698,7 @@
         <v>0.5335658662608733</v>
       </c>
       <c r="I10">
-        <v>1.263174967023948</v>
+        <v>1.263850175381124</v>
       </c>
     </row>
     <row r="11">
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.285342222525221</v>
+        <v>2.285535806575335</v>
       </c>
       <c r="F11">
-        <v>1.508720252860872</v>
+        <v>1.508614763283712</v>
       </c>
       <c r="G11">
         <v>1.052245127335171</v>
@@ -731,7 +731,7 @@
         <v>-0.2965791441100969</v>
       </c>
       <c r="I11">
-        <v>1.529676239300148</v>
+        <v>1.529869823350261</v>
       </c>
     </row>
     <row r="12">
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.931965411866221</v>
+        <v>1.931644997024508</v>
       </c>
       <c r="F12">
-        <v>1.734525780928997</v>
+        <v>1.734679676165521</v>
       </c>
       <c r="G12">
         <v>0.3185676646894323</v>
@@ -764,7 +764,7 @@
         <v>-0.2595992058963156</v>
       </c>
       <c r="I12">
-        <v>1.872996953073104</v>
+        <v>1.872676538231392</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.443771624297853</v>
+        <v>1.443739216222842</v>
       </c>
       <c r="F13">
-        <v>1.895229748265949</v>
+        <v>1.895358740638592</v>
       </c>
       <c r="G13">
         <v>-0.08532620047935681</v>
@@ -797,7 +797,7 @@
         <v>-0.02386484856737564</v>
       </c>
       <c r="I13">
-        <v>1.552962673344586</v>
+        <v>1.552930265269575</v>
       </c>
     </row>
     <row r="14">
@@ -818,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1.188166172820331</v>
+        <v>1.187712274604291</v>
       </c>
       <c r="F14">
-        <v>1.712311357877406</v>
+        <v>1.712158073606745</v>
       </c>
       <c r="G14">
         <v>0.3456853209154376</v>
       </c>
       <c r="H14">
-        <v>-0.2574736546801012</v>
+        <v>-0.2574736546801013</v>
       </c>
       <c r="I14">
-        <v>1.099954506584995</v>
+        <v>1.099500608368954</v>
       </c>
     </row>
     <row r="15">
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7128131158019653</v>
+        <v>0.7133263378476467</v>
       </c>
       <c r="F15">
-        <v>1.319179081196592</v>
+        <v>1.319105706424823</v>
       </c>
       <c r="G15">
         <v>0.0406776650144408</v>
@@ -863,7 +863,7 @@
         <v>-0.4619483423637046</v>
       </c>
       <c r="I15">
-        <v>1.134083793151229</v>
+        <v>1.134597015196911</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1.38384912093355</v>
+        <v>1.385299507138876</v>
       </c>
       <c r="F16">
-        <v>1.182150008463424</v>
+        <v>1.182519333953415</v>
       </c>
       <c r="G16">
         <v>1.665594538201976</v>
@@ -896,7 +896,7 @@
         <v>-1.43490081457891</v>
       </c>
       <c r="I16">
-        <v>1.153155397310484</v>
+        <v>1.154605783515809</v>
       </c>
     </row>
     <row r="17">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5882778225287952</v>
+        <v>0.5884807197534302</v>
       </c>
       <c r="F17">
-        <v>0.9682765580211596</v>
+        <v>0.9687047098360617</v>
       </c>
       <c r="G17">
         <v>-0.7323423591140148</v>
@@ -929,7 +929,7 @@
         <v>0.3998565275949437</v>
       </c>
       <c r="I17">
-        <v>0.9207636540478663</v>
+        <v>0.9209665512725013</v>
       </c>
     </row>
     <row r="18">
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6484157767578571</v>
+        <v>0.6483471362496426</v>
       </c>
       <c r="F18">
-        <v>0.8333389590055411</v>
+        <v>0.8338634252473998</v>
       </c>
       <c r="G18">
         <v>0.5092651698143085</v>
@@ -962,7 +962,7 @@
         <v>-0.546989131172936</v>
       </c>
       <c r="I18">
-        <v>0.6861397381164847</v>
+        <v>0.6860710976082701</v>
       </c>
     </row>
     <row r="19">
@@ -983,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.07736815158605984</v>
+        <v>0.07706421107389419</v>
       </c>
       <c r="F19">
-        <v>0.6744777179515649</v>
+        <v>0.6747978935539617</v>
       </c>
       <c r="G19">
-        <v>-0.4041200882597878</v>
+        <v>-0.4041200882597879</v>
       </c>
       <c r="H19">
         <v>0.2335694975294421</v>
       </c>
       <c r="I19">
-        <v>0.2479187423164056</v>
+        <v>0.24761480180424</v>
       </c>
     </row>
     <row r="20">
@@ -1016,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1204265298871156</v>
+        <v>-0.1197440912471906</v>
       </c>
       <c r="F20">
-        <v>0.2984088052463984</v>
+        <v>0.2985369939574451</v>
       </c>
       <c r="G20">
         <v>-0.2813714609987538</v>
@@ -1028,7 +1028,7 @@
         <v>-0.03567393639946731</v>
       </c>
       <c r="I20">
-        <v>0.1966188675111055</v>
+        <v>0.1973013061510305</v>
       </c>
     </row>
     <row r="21">
@@ -1049,10 +1049,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-0.4655468536569111</v>
+        <v>-0.4654912699649514</v>
       </c>
       <c r="F21">
-        <v>0.03495263619997183</v>
+        <v>0.0350439965278497</v>
       </c>
       <c r="G21">
         <v>0.3398770253391276</v>
@@ -1061,7 +1061,7 @@
         <v>-0.7314416061911453</v>
       </c>
       <c r="I21">
-        <v>-0.07398227280489336</v>
+        <v>-0.07392668911293369</v>
       </c>
     </row>
     <row r="22">
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-0.66597156096414</v>
+        <v>-0.6667320013633891</v>
       </c>
       <c r="F22">
-        <v>-0.2936441982305275</v>
+        <v>-0.2937257878754082</v>
       </c>
       <c r="G22">
         <v>-0.3550314415416719</v>
@@ -1094,7 +1094,7 @@
         <v>-0.2307444377000993</v>
       </c>
       <c r="I22">
-        <v>-0.08019568172236891</v>
+        <v>-0.080956122121618</v>
       </c>
     </row>
     <row r="23">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-0.6363277001230021</v>
+        <v>-0.6360786025057481</v>
       </c>
       <c r="F23">
-        <v>-0.4720681611577929</v>
+        <v>-0.4720114912703188</v>
       </c>
       <c r="G23">
         <v>0.02168388493087975</v>
@@ -1127,7 +1127,7 @@
         <v>-0.1581741428903265</v>
       </c>
       <c r="I23">
-        <v>-0.4998374421635554</v>
+        <v>-0.4995883445463014</v>
       </c>
     </row>
     <row r="24">
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-1.059191424855756</v>
+        <v>-1.059035740127722</v>
       </c>
       <c r="F24">
-        <v>-0.7067593848999529</v>
+        <v>-0.7068344034904516</v>
       </c>
       <c r="G24">
         <v>-0.2701579859382386</v>
@@ -1160,7 +1160,7 @@
         <v>-0.2764818884085525</v>
       </c>
       <c r="I24">
-        <v>-0.5125515505089645</v>
+        <v>-0.5123958657809304</v>
       </c>
     </row>
     <row r="25">
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-0.7625094549814095</v>
+        <v>-0.7633323808550926</v>
       </c>
       <c r="F25">
-        <v>-0.7810000352310775</v>
+        <v>-0.7812946812129868</v>
       </c>
       <c r="G25">
         <v>-0.1071728628412014</v>
@@ -1193,7 +1193,7 @@
         <v>-0.1249180002665537</v>
       </c>
       <c r="I25">
-        <v>-0.5304185918736545</v>
+        <v>-0.5312415177473375</v>
       </c>
     </row>
     <row r="26">
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.8686373311051071</v>
+        <v>-0.868496698635547</v>
       </c>
       <c r="F26">
-        <v>-0.8316664777663193</v>
+        <v>-0.8317358555310264</v>
       </c>
       <c r="G26">
         <v>-0.2767950136222138</v>
@@ -1226,7 +1226,7 @@
         <v>-0.1302645945694583</v>
       </c>
       <c r="I26">
-        <v>-0.461577722913435</v>
+        <v>-0.4614370904438749</v>
       </c>
     </row>
     <row r="27">
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08933197463653653</v>
+        <v>-0.08904151706259766</v>
       </c>
       <c r="F27">
-        <v>-0.6949175463947028</v>
+        <v>-0.6949765841702387</v>
       </c>
       <c r="G27">
         <v>0.6877869103813896</v>
@@ -1259,7 +1259,7 @@
         <v>-0.1683661652429188</v>
       </c>
       <c r="I27">
-        <v>-0.6087527197750074</v>
+        <v>-0.6084622622010686</v>
       </c>
     </row>
     <row r="28">
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>-1.121362038847531</v>
+        <v>-1.121428329652999</v>
       </c>
       <c r="F28">
-        <v>-0.7104601998926466</v>
+        <v>-0.710574731551558</v>
       </c>
       <c r="G28">
         <v>-0.4905032062218124</v>
@@ -1292,7 +1292,7 @@
         <v>0.03320395040116637</v>
       </c>
       <c r="I28">
-        <v>-0.664062783026885</v>
+        <v>-0.6641290738323532</v>
       </c>
     </row>
     <row r="29">
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>-0.8025841134312768</v>
+        <v>-0.8023196183270442</v>
       </c>
       <c r="F29">
-        <v>-0.7204788645051134</v>
+        <v>-0.720321540919546</v>
       </c>
       <c r="G29">
         <v>-0.6627889888787315</v>
@@ -1325,7 +1325,7 @@
         <v>0.1395514339167008</v>
       </c>
       <c r="I29">
-        <v>-0.2793465584692461</v>
+        <v>-0.2790820633650136</v>
       </c>
     </row>
     <row r="30">
@@ -1346,10 +1346,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04497306661156075</v>
+        <v>-0.04565329217308461</v>
       </c>
       <c r="F30">
-        <v>-0.5145627983817269</v>
+        <v>-0.5146106893039304</v>
       </c>
       <c r="G30">
         <v>0.0405326156052338</v>
@@ -1358,7 +1358,7 @@
         <v>0.202729765204821</v>
       </c>
       <c r="I30">
-        <v>-0.2882354474216156</v>
+        <v>-0.2889156729831394</v>
       </c>
     </row>
     <row r="31">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>-0.5945145374658474</v>
+        <v>-0.5940432398129916</v>
       </c>
       <c r="F31">
-        <v>-0.6408584390890546</v>
+        <v>-0.640861119991529</v>
       </c>
       <c r="G31">
         <v>-0.4482138378535143</v>
@@ -1391,7 +1391,7 @@
         <v>0.1914173671366676</v>
       </c>
       <c r="I31">
-        <v>-0.3377180667490006</v>
+        <v>-0.3372467690961448</v>
       </c>
     </row>
     <row r="32">
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0.04949840875269429</v>
+        <v>0.04940884206564261</v>
       </c>
       <c r="F32">
-        <v>-0.3481433271889983</v>
+        <v>-0.3481518270618685</v>
       </c>
       <c r="G32">
         <v>0.6845768143843559</v>
@@ -1424,7 +1424,7 @@
         <v>-0.3565550164851028</v>
       </c>
       <c r="I32">
-        <v>-0.2785233891465588</v>
+        <v>-0.2786129558336105</v>
       </c>
     </row>
     <row r="33">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>-0.06747215153773298</v>
+        <v>-0.06787364306475245</v>
       </c>
       <c r="F33">
-        <v>-0.1643653367156124</v>
+        <v>-0.1645403332462955</v>
       </c>
       <c r="G33">
         <v>-0.08640542978502515</v>
@@ -1457,7 +1457,7 @@
         <v>0.06632580721215653</v>
       </c>
       <c r="I33">
-        <v>-0.04739252896486435</v>
+        <v>-0.04779402049188383</v>
       </c>
     </row>
     <row r="34">
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0.2925968720771208</v>
+        <v>0.2930068653878942</v>
       </c>
       <c r="F34">
-        <v>-0.07997285204344198</v>
+        <v>-0.07987529385605083</v>
       </c>
       <c r="G34">
         <v>0.134181683212793</v>
@@ -1490,7 +1490,7 @@
         <v>0.1080155521227334</v>
       </c>
       <c r="I34">
-        <v>0.05039963674159439</v>
+        <v>0.05080963005236774</v>
       </c>
     </row>
     <row r="35">
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>-0.05470159743612268</v>
+        <v>-0.05500495643226036</v>
       </c>
       <c r="F35">
-        <v>0.05498038296398919</v>
+        <v>0.05488427698913198</v>
       </c>
       <c r="G35">
         <v>0.3175547462742406</v>
@@ -1523,7 +1523,7 @@
         <v>-0.5011733566315455</v>
       </c>
       <c r="I35">
-        <v>0.1289170129211822</v>
+        <v>0.1286136539250445</v>
       </c>
     </row>
     <row r="36">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2.604105573262943</v>
+        <v>2.604355249890733</v>
       </c>
       <c r="F36">
-        <v>0.6936321740915514</v>
+        <v>0.6936208789454045</v>
       </c>
       <c r="G36">
         <v>0.5310600703908137</v>
@@ -1556,7 +1556,7 @@
         <v>-0.1974623965262828</v>
       </c>
       <c r="I36">
-        <v>2.270507899398412</v>
+        <v>2.270757576026202</v>
       </c>
     </row>
     <row r="37">
@@ -1577,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1.412453084073397</v>
+        <v>1.413474371904715</v>
       </c>
       <c r="F37">
-        <v>1.063613482994334</v>
+        <v>1.063957882687771</v>
       </c>
       <c r="G37">
         <v>-0.002758138597635018</v>
@@ -1589,7 +1589,7 @@
         <v>0.3093434144177715</v>
       </c>
       <c r="I37">
-        <v>1.105867808253261</v>
+        <v>1.106889096084578</v>
       </c>
     </row>
     <row r="38">
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>1.633001091925851</v>
+        <v>1.632737114848934</v>
       </c>
       <c r="F38">
-        <v>1.398714537956517</v>
+        <v>1.398890445053031</v>
       </c>
       <c r="G38">
         <v>0.5136971469729917</v>
@@ -1622,7 +1622,7 @@
         <v>-0.2960053567725832</v>
       </c>
       <c r="I38">
-        <v>1.415309301725443</v>
+        <v>1.415045324648525</v>
       </c>
     </row>
     <row r="39">
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>3.532122308897292</v>
+        <v>3.532145216423655</v>
       </c>
       <c r="F39">
-        <v>2.295420514539871</v>
+        <v>2.29567798826701</v>
       </c>
       <c r="G39">
         <v>0.1830775014705948</v>
@@ -1655,7 +1655,7 @@
         <v>0.4338389778553179</v>
       </c>
       <c r="I39">
-        <v>2.915205829571379</v>
+        <v>2.915228737097742</v>
       </c>
     </row>
     <row r="40">
@@ -1676,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2.864287839047667</v>
+        <v>2.86395089891158</v>
       </c>
       <c r="F40">
-        <v>2.360466080986052</v>
+        <v>2.360576900522222</v>
       </c>
       <c r="G40">
         <v>1.644181498240886</v>
@@ -1688,7 +1688,7 @@
         <v>-0.7074856204578588</v>
       </c>
       <c r="I40">
-        <v>1.92759196126464</v>
+        <v>1.927255021128552</v>
       </c>
     </row>
     <row r="41">
@@ -1709,10 +1709,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>2.739702111884473</v>
+        <v>2.739523506820381</v>
       </c>
       <c r="F41">
-        <v>2.692278337938821</v>
+        <v>2.692089184251138</v>
       </c>
       <c r="G41">
         <v>0.4214418425158024</v>
@@ -1721,7 +1721,7 @@
         <v>-0.44606518048123</v>
       </c>
       <c r="I41">
-        <v>2.764325449849901</v>
+        <v>2.764146844785808</v>
       </c>
     </row>
     <row r="42">
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>2.255849807384959</v>
+        <v>2.255680791332724</v>
       </c>
       <c r="F42">
-        <v>2.847990516803597</v>
+        <v>2.847825103372085</v>
       </c>
       <c r="G42">
         <v>0.6290059163210516</v>
@@ -1754,7 +1754,7 @@
         <v>-0.7144042446540373</v>
       </c>
       <c r="I42">
-        <v>2.341248135717945</v>
+        <v>2.34107911966571</v>
       </c>
     </row>
     <row r="43">
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1.495647569594783</v>
+        <v>1.494787064688244</v>
       </c>
       <c r="F43">
-        <v>2.33887183197797</v>
+        <v>2.338485565438233</v>
       </c>
       <c r="G43">
         <v>0.4901069572014474</v>
@@ -1787,7 +1787,7 @@
         <v>-1.063597864520708</v>
       </c>
       <c r="I43">
-        <v>2.069138476914044</v>
+        <v>2.068277972007504</v>
       </c>
     </row>
     <row r="44">
@@ -1808,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1.196798063428107</v>
+        <v>1.197042502772424</v>
       </c>
       <c r="F44">
-        <v>1.92199938807308</v>
+        <v>1.921758466403444</v>
       </c>
       <c r="G44">
         <v>0.4203095613777605</v>
@@ -1820,7 +1820,7 @@
         <v>-0.37639879104271</v>
       </c>
       <c r="I44">
-        <v>1.152887293093057</v>
+        <v>1.153131732437373</v>
       </c>
     </row>
     <row r="45">
@@ -1841,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1911591396440102</v>
+        <v>0.1913936891530983</v>
       </c>
       <c r="F45">
-        <v>1.284863645012964</v>
+        <v>1.284726011986623</v>
       </c>
       <c r="G45">
         <v>0.08455124436341505</v>
@@ -1853,7 +1853,7 @@
         <v>-0.9266923783968273</v>
       </c>
       <c r="I45">
-        <v>1.033300273677422</v>
+        <v>1.033534823186511</v>
       </c>
     </row>
     <row r="46">
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0.2279892483689395</v>
+        <v>0.2280491170529774</v>
       </c>
       <c r="F46">
-        <v>0.7778985052589592</v>
+        <v>0.7778180934166865</v>
       </c>
       <c r="G46">
         <v>-0.7063634794243945</v>
@@ -1886,7 +1886,7 @@
         <v>-0.08829624979960171</v>
       </c>
       <c r="I46">
-        <v>1.022648977592936</v>
+        <v>1.022708846276974</v>
       </c>
     </row>
     <row r="47">
@@ -1907,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.43528819058441</v>
+        <v>-1.43555459036326</v>
       </c>
       <c r="F47">
-        <v>0.04516456521416112</v>
+        <v>0.04523267965381062</v>
       </c>
       <c r="G47">
         <v>-0.7791842320308732</v>
@@ -1919,7 +1919,7 @@
         <v>-0.5207276274948131</v>
       </c>
       <c r="I47">
-        <v>-0.1353763310587236</v>
+        <v>-0.1356427308375739</v>
       </c>
     </row>
     <row r="48">
@@ -1940,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>-1.317189124701745</v>
+        <v>-1.317036575972883</v>
       </c>
       <c r="F48">
-        <v>-0.5833322318183018</v>
+        <v>-0.5832870900325162</v>
       </c>
       <c r="G48">
         <v>-0.1791826590862452</v>
@@ -1952,7 +1952,7 @@
         <v>-0.6686679888322142</v>
       </c>
       <c r="I48">
-        <v>-0.4693384767832854</v>
+        <v>-0.4691859280544238</v>
       </c>
     </row>
     <row r="49">
@@ -1973,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>-2.162992892311451</v>
+        <v>-2.163708922374684</v>
       </c>
       <c r="F49">
-        <v>-1.171870239807167</v>
+        <v>-1.172062742914462</v>
       </c>
       <c r="G49">
         <v>-1.410076980392139</v>
@@ -1985,7 +1985,7 @@
         <v>-0.05152418484441068</v>
       </c>
       <c r="I49">
-        <v>-0.7013917270749013</v>
+        <v>-0.702107757138134</v>
       </c>
     </row>
     <row r="50">
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>-1.084930329632481</v>
+        <v>-1.085197855429417</v>
       </c>
       <c r="F50">
-        <v>-1.500100134307522</v>
+        <v>-1.500374486035061</v>
       </c>
       <c r="G50">
         <v>-0.2105533183890024</v>
@@ -2018,7 +2018,7 @@
         <v>-0.1404336047976929</v>
       </c>
       <c r="I50">
-        <v>-0.7339434064457862</v>
+        <v>-0.7342109322427215</v>
       </c>
     </row>
     <row r="51">
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>-1.457288912263728</v>
+        <v>-1.457193229872469</v>
       </c>
       <c r="F51">
-        <v>-1.505600314727352</v>
+        <v>-1.505784145912363</v>
       </c>
       <c r="G51">
         <v>-0.3909270564522251</v>
@@ -2051,7 +2051,7 @@
         <v>-0.2560200781047454</v>
       </c>
       <c r="I51">
-        <v>-0.8103417777067574</v>
+        <v>-0.8102460953154985</v>
       </c>
     </row>
     <row r="52">
@@ -2072,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>-1.284356325970676</v>
+        <v>-1.283561786197312</v>
       </c>
       <c r="F52">
-        <v>-1.497392115044585</v>
+        <v>-1.49741544846847</v>
       </c>
       <c r="G52">
         <v>-0.6442132037942118</v>
@@ -2084,7 +2084,7 @@
         <v>-0.06640099407624728</v>
       </c>
       <c r="I52">
-        <v>-0.5737421281002171</v>
+        <v>-0.5729475883268532</v>
       </c>
     </row>
     <row r="53">
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>-0.8583302477527929</v>
+        <v>-0.8579113804721512</v>
       </c>
       <c r="F53">
-        <v>-1.17122645390492</v>
+        <v>-1.170966062992837</v>
       </c>
       <c r="G53">
         <v>-0.07052941796100387</v>
@@ -2117,7 +2117,7 @@
         <v>-0.3554763575157842</v>
       </c>
       <c r="I53">
-        <v>-0.4323244722760048</v>
+        <v>-0.4319056049953631</v>
       </c>
     </row>
     <row r="54">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>-1.565634900165805</v>
+        <v>-1.56608131674303</v>
       </c>
       <c r="F54">
-        <v>-1.291402596538251</v>
+        <v>-1.29118692832124</v>
       </c>
       <c r="G54">
         <v>-0.8865916234440627</v>
@@ -2150,7 +2150,7 @@
         <v>-0.1832364051070537</v>
       </c>
       <c r="I54">
-        <v>-0.4958068716146886</v>
+        <v>-0.4962532881919139</v>
       </c>
     </row>
     <row r="55">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>-1.783417127555434</v>
+        <v>-1.783417405602018</v>
       </c>
       <c r="F55">
-        <v>-1.372934650361178</v>
+        <v>-1.372742972253627</v>
       </c>
       <c r="G55">
         <v>-1.047790882965999</v>
@@ -2183,7 +2183,7 @@
         <v>0.04953696020514492</v>
       </c>
       <c r="I55">
-        <v>-0.78516320479458</v>
+        <v>-0.7851634828411646</v>
       </c>
     </row>
     <row r="56">
@@ -2204,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>-1.295427428140189</v>
+        <v>-1.295826022465722</v>
       </c>
       <c r="F56">
-        <v>-1.375702425903556</v>
+        <v>-1.37580903132073</v>
       </c>
       <c r="G56">
         <v>-0.3471829962638515</v>
@@ -2216,7 +2216,7 @@
         <v>-0.0966042891959619</v>
       </c>
       <c r="I56">
-        <v>-0.8516401426803758</v>
+        <v>-0.8520387370059082</v>
       </c>
     </row>
     <row r="57">
@@ -2237,10 +2237,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>-1.152610993212792</v>
+        <v>-1.152891776480925</v>
       </c>
       <c r="F57">
-        <v>-1.449272612268556</v>
+        <v>-1.449554130322923</v>
       </c>
       <c r="G57">
         <v>-0.6132388212289077</v>
@@ -2249,7 +2249,7 @@
         <v>-0.1028635192602457</v>
       </c>
       <c r="I57">
-        <v>-0.4365086527236389</v>
+        <v>-0.4367894359917712</v>
       </c>
     </row>
     <row r="58">
@@ -2270,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>-1.384226526985612</v>
+        <v>-1.384154271490635</v>
       </c>
       <c r="F58">
-        <v>-1.403920518973508</v>
+        <v>-1.404072369009824</v>
       </c>
       <c r="G58">
         <v>-0.9172888700772799</v>
@@ -2282,7 +2282,7 @@
         <v>0.01540737794330799</v>
       </c>
       <c r="I58">
-        <v>-0.4823450348516403</v>
+        <v>-0.4822727793566633</v>
       </c>
     </row>
     <row r="59">
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>-1.297272162778938</v>
+        <v>-1.297127733297142</v>
       </c>
       <c r="F59">
-        <v>-1.282384277779384</v>
+        <v>-1.282499950933605</v>
       </c>
       <c r="G59">
         <v>-0.2587432465973415</v>
@@ -2315,7 +2315,7 @@
         <v>-0.3629080917018036</v>
       </c>
       <c r="I59">
-        <v>-0.6756208244797927</v>
+        <v>-0.6754763949979967</v>
       </c>
     </row>
     <row r="60">
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>-0.7507150353225633</v>
+        <v>-0.7502484479585195</v>
       </c>
       <c r="F60">
-        <v>-1.146206179574977</v>
+        <v>-1.146105557306805</v>
       </c>
       <c r="G60">
         <v>-0.09302646274323331</v>
@@ -2348,7 +2348,7 @@
         <v>-0.1298910337959616</v>
       </c>
       <c r="I60">
-        <v>-0.5277975387833684</v>
+        <v>-0.5273309514193246</v>
       </c>
     </row>
     <row r="61">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>-0.1726286086756727</v>
+        <v>-0.1723529222894641</v>
       </c>
       <c r="F61">
-        <v>-0.9012105834406974</v>
+        <v>-0.9009708437589395</v>
       </c>
       <c r="G61">
         <v>0.03469619020211948</v>
@@ -2381,7 +2381,7 @@
         <v>0.1381184495505191</v>
       </c>
       <c r="I61">
-        <v>-0.3454432484283113</v>
+        <v>-0.3451675620421027</v>
       </c>
     </row>
     <row r="62">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>-0.5422171705718358</v>
+        <v>-0.5414991552362339</v>
       </c>
       <c r="F62">
-        <v>-0.6907082443372532</v>
+        <v>-0.6903070646953393</v>
       </c>
       <c r="G62">
         <v>-0.8456653475137066</v>
@@ -2414,7 +2414,7 @@
         <v>0.4977560396995079</v>
       </c>
       <c r="I62">
-        <v>-0.1943078627576371</v>
+        <v>-0.1935898474220353</v>
       </c>
     </row>
     <row r="63">
@@ -2435,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07508084834374588</v>
+        <v>0.07521201813555149</v>
       </c>
       <c r="F63">
-        <v>-0.3476199915565823</v>
+        <v>-0.347222126837166</v>
       </c>
       <c r="G63">
         <v>0.0488266565076218</v>
@@ -2447,7 +2447,7 @@
         <v>0.00794499122983091</v>
       </c>
       <c r="I63">
-        <v>0.01830920060629317</v>
+        <v>0.01844037039809878</v>
       </c>
     </row>
     <row r="64">
@@ -2468,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.2871956342159526</v>
+        <v>0.286690415375635</v>
       </c>
       <c r="F64">
-        <v>-0.08814232417195333</v>
+        <v>-0.08798741100362742</v>
       </c>
       <c r="G64">
         <v>-0.07135988355089964</v>
@@ -2480,7 +2480,7 @@
         <v>0.3696321006761685</v>
       </c>
       <c r="I64">
-        <v>-0.01107658290931631</v>
+        <v>-0.01158180174963387</v>
       </c>
     </row>
     <row r="65">
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.0348932722193499</v>
+        <v>0.03462809556592961</v>
       </c>
       <c r="F65">
-        <v>-0.03626185394819768</v>
+        <v>-0.036242156539779</v>
       </c>
       <c r="G65">
         <v>-0.04123200610439566</v>
@@ -2513,7 +2513,7 @@
         <v>0.05673608506707493</v>
       </c>
       <c r="I65">
-        <v>0.01938919325667063</v>
+        <v>0.01912401660325034</v>
       </c>
     </row>
     <row r="66">
@@ -2534,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>-0.1005819750487675</v>
+        <v>-0.1011811643181902</v>
       </c>
       <c r="F66">
-        <v>0.0741469449325694</v>
+        <v>0.07383734118973195</v>
       </c>
       <c r="G66">
         <v>0.1305714754136182</v>
@@ -2546,7 +2546,7 @@
         <v>-0.1739916507745391</v>
       </c>
       <c r="I66">
-        <v>-0.05716179968784655</v>
+        <v>-0.05776098895726919</v>
       </c>
     </row>
     <row r="67">
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.317607350645855</v>
+        <v>0.3179058919803286</v>
       </c>
       <c r="F67">
-        <v>0.1347785705080967</v>
+        <v>0.1345108096509262</v>
       </c>
       <c r="G67">
         <v>-0.0095204543947928</v>
@@ -2579,7 +2579,7 @@
         <v>0.3618699123118419</v>
       </c>
       <c r="I67">
-        <v>-0.03474210727119406</v>
+        <v>-0.0344435659367205</v>
       </c>
     </row>
     <row r="68">
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>-0.4746798065130151</v>
+        <v>-0.4745098658630824</v>
       </c>
       <c r="F68">
-        <v>-0.05569028967414523</v>
+        <v>-0.0557892606587531</v>
       </c>
       <c r="G68">
         <v>-0.2028730263807215</v>
@@ -2612,7 +2612,7 @@
         <v>-0.1980140598340873</v>
       </c>
       <c r="I68">
-        <v>-0.07379272029820626</v>
+        <v>-0.0736227796482735</v>
       </c>
     </row>
     <row r="69">
@@ -2633,10 +2633,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>-0.09238412162976098</v>
+        <v>-0.09254941770088418</v>
       </c>
       <c r="F69">
-        <v>-0.08750963813642296</v>
+        <v>-0.08758363897545654</v>
       </c>
       <c r="G69">
         <v>-0.0594327661714883</v>
@@ -2645,7 +2645,7 @@
         <v>0.1054090751596382</v>
       </c>
       <c r="I69">
-        <v>-0.1383604306179109</v>
+        <v>-0.1385257266890341</v>
       </c>
     </row>
     <row r="70">
@@ -2666,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>-0.1990579218844226</v>
+        <v>-0.1993498198189684</v>
       </c>
       <c r="F70">
-        <v>-0.1121286248453367</v>
+        <v>-0.1121258028506511</v>
       </c>
       <c r="G70">
-        <v>-0.1469082386613492</v>
+        <v>-0.1469082386613493</v>
       </c>
       <c r="H70">
         <v>0.05240041216595906</v>
       </c>
       <c r="I70">
-        <v>-0.1045500953890324</v>
+        <v>-0.1048419933235782</v>
       </c>
     </row>
     <row r="71">
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2103550967322966</v>
+        <v>-0.2105616900593215</v>
       </c>
       <c r="F71">
-        <v>-0.2441192366898746</v>
+        <v>-0.2442426983605636</v>
       </c>
       <c r="G71">
         <v>-0.2842812308453224</v>
@@ -2711,7 +2711,7 @@
         <v>0.01102558298453079</v>
       </c>
       <c r="I71">
-        <v>0.06290055112849507</v>
+        <v>0.0626939578014702</v>
       </c>
     </row>
     <row r="72">
@@ -2732,10 +2732,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07533844586083796</v>
+        <v>0.07546623696688659</v>
       </c>
       <c r="F72">
-        <v>-0.1066146735964113</v>
+        <v>-0.1067486726530714</v>
       </c>
       <c r="G72">
         <v>0.1101517719974749</v>
@@ -2744,7 +2744,7 @@
         <v>-0.1229138139409729</v>
       </c>
       <c r="I72">
-        <v>0.08810048780433589</v>
+        <v>0.08822827891038453</v>
       </c>
     </row>
     <row r="73">
@@ -2765,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>-0.2287256002259627</v>
+        <v>-0.2288536337787813</v>
       </c>
       <c r="F73">
-        <v>-0.1407000432454618</v>
+        <v>-0.1408247266725457</v>
       </c>
       <c r="G73">
         <v>-0.3642509696606954</v>
@@ -2777,7 +2777,7 @@
         <v>0.1086193414943325</v>
       </c>
       <c r="I73">
-        <v>0.02690602794040024</v>
+        <v>0.02677799438758162</v>
       </c>
     </row>
     <row r="74">
@@ -2798,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0.03959594375674771</v>
+        <v>0.03946169552298146</v>
       </c>
       <c r="F74">
-        <v>-0.0810365768351692</v>
+        <v>-0.0811218478370582</v>
       </c>
       <c r="G74">
         <v>0.2237569875946429</v>
@@ -2810,7 +2810,7 @@
         <v>-0.02712450934502616</v>
       </c>
       <c r="I74">
-        <v>-0.157036534492869</v>
+        <v>-0.1571707827266353</v>
       </c>
     </row>
     <row r="75">
@@ -2831,10 +2831,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.0181712003829638</v>
+        <v>0.01842065120159704</v>
       </c>
       <c r="F75">
-        <v>-0.02390500255635411</v>
+        <v>-0.02387626252182858</v>
       </c>
       <c r="G75">
         <v>-0.01311419685234618</v>
@@ -2843,7 +2843,7 @@
         <v>-0.03836760891619392</v>
       </c>
       <c r="I75">
-        <v>0.0696530061515039</v>
+        <v>0.06990245697013714</v>
       </c>
     </row>
     <row r="76">
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273310033908086</v>
+        <v>0.4273326313133025</v>
       </c>
       <c r="F76">
-        <v>0.06409313682613854</v>
+        <v>0.06409033606477539</v>
       </c>
       <c r="G76">
         <v>0.007741184328022455</v>
@@ -2876,7 +2876,7 @@
         <v>0.1820306418640798</v>
       </c>
       <c r="I76">
-        <v>0.2375591771987063</v>
+        <v>0.2375608051212002</v>
       </c>
     </row>
     <row r="77">
@@ -2897,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>0.1656468001724334</v>
+        <v>0.1652983376755857</v>
       </c>
       <c r="F77">
-        <v>0.1626862369257376</v>
+        <v>0.1626283289283672</v>
       </c>
       <c r="G77">
         <v>0.1832164717785813</v>
@@ -2909,7 +2909,7 @@
         <v>-0.0655278868595966</v>
       </c>
       <c r="I77">
-        <v>0.04795821525344868</v>
+        <v>0.04760975275660094</v>
       </c>
     </row>
     <row r="78">
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>-0.4280410883731992</v>
+        <v>-0.4280824757189858</v>
       </c>
       <c r="F78">
-        <v>0.04577697889325084</v>
+        <v>0.04574228611787533</v>
       </c>
       <c r="G78">
         <v>-0.0319629231639949</v>
@@ -2942,7 +2942,7 @@
         <v>-0.4472970132207758</v>
       </c>
       <c r="I78">
-        <v>0.05121884801157155</v>
+        <v>0.05117746066578486</v>
       </c>
     </row>
     <row r="79">
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.2109907177307189</v>
+        <v>0.211407231042728</v>
       </c>
       <c r="F79">
-        <v>0.09398185823018962</v>
+        <v>0.09398893107815808</v>
       </c>
       <c r="G79">
         <v>-0.1261415442716636</v>
@@ -2975,7 +2975,7 @@
         <v>0.234931818107759</v>
       </c>
       <c r="I79">
-        <v>0.1022004438946236</v>
+        <v>0.1026169572066326</v>
       </c>
     </row>
     <row r="80">
@@ -2996,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>0.6139051435579954</v>
+        <v>0.6139640220240625</v>
       </c>
       <c r="F80">
-        <v>0.1406253932719863</v>
+        <v>0.1406467787558481</v>
       </c>
       <c r="G80">
         <v>0.43627845986265</v>
@@ -3008,7 +3008,7 @@
         <v>0.1023935315640581</v>
       </c>
       <c r="I80">
-        <v>0.07523315213128735</v>
+        <v>0.07529203059735448</v>
       </c>
     </row>
     <row r="81">
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>0.4001838849401698</v>
+        <v>0.4001201119220791</v>
       </c>
       <c r="F81">
-        <v>0.1992596644639204</v>
+        <v>0.1993522223174715</v>
       </c>
       <c r="G81">
         <v>0.1698509031992773</v>
@@ -3041,7 +3041,7 @@
         <v>-0.117298132789972</v>
       </c>
       <c r="I81">
-        <v>0.3476311145308645</v>
+        <v>0.3475673415127739</v>
       </c>
     </row>
     <row r="82">
@@ -3062,10 +3062,10 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>0.4806702503234167</v>
+        <v>0.4816080942708365</v>
       </c>
       <c r="F82">
-        <v>0.4264374991380743</v>
+        <v>0.4267748648149271</v>
       </c>
       <c r="G82">
         <v>0.3437108920115783</v>
@@ -3074,7 +3074,7 @@
         <v>-0.2466962259924505</v>
       </c>
       <c r="I82">
-        <v>0.3836555843042889</v>
+        <v>0.3845934282517087</v>
       </c>
     </row>
     <row r="83">
@@ -3095,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>0.08512296786821864</v>
+        <v>0.08506766165855074</v>
       </c>
       <c r="F83">
-        <v>0.3949705616724493</v>
+        <v>0.3951899724688828</v>
       </c>
       <c r="G83">
         <v>-0.02351814460598127</v>
@@ -3107,7 +3107,7 @@
         <v>-0.07249663819006502</v>
       </c>
       <c r="I83">
-        <v>0.1811377506642649</v>
+        <v>0.181082444454597</v>
       </c>
     </row>
     <row r="84">
@@ -3128,19 +3128,19 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>14.30995993990337</v>
+        <v>14.28977758476562</v>
       </c>
       <c r="F84">
-        <v>3.818984260758794</v>
+        <v>3.814143363154271</v>
       </c>
       <c r="G84">
-        <v>13.5431724569603</v>
+        <v>2.31906979058428</v>
       </c>
       <c r="H84">
-        <v>-13.42972625192188</v>
+        <v>-2.205623585545855</v>
       </c>
       <c r="I84">
-        <v>14.19651373486495</v>
+        <v>14.17633137972719</v>
       </c>
     </row>
     <row r="85">
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.778452450136442</v>
+        <v>3.491222037219346</v>
       </c>
       <c r="F85">
-        <v>4.663551402057863</v>
+        <v>4.586918844478588</v>
       </c>
       <c r="G85">
-        <v>-14.00135327692795</v>
+        <v>-0.4916588542049684</v>
       </c>
       <c r="H85">
-        <v>12.84027755536455</v>
+        <v>-0.7496300744729976</v>
       </c>
       <c r="I85">
-        <v>4.939528171699834</v>
+        <v>4.732510965897312</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-0.7484702393197009</v>
+        <v>-2.986350456109255</v>
       </c>
       <c r="F86">
-        <v>4.356266279647083</v>
+        <v>3.719929206883565</v>
       </c>
       <c r="G86">
-        <v>-0.2556728698451678</v>
+        <v>0.2003096529395086</v>
       </c>
       <c r="H86">
-        <v>0.08818585850387101</v>
+        <v>-0.3671416208689566</v>
       </c>
       <c r="I86">
-        <v>-0.5809832279784041</v>
+        <v>-2.819518488179807</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0.3091232364041231</v>
+        <v>-1.433745965553207</v>
       </c>
       <c r="F87">
-        <v>4.412266346781059</v>
+        <v>3.340225800080626</v>
       </c>
       <c r="G87">
-        <v>-0.4125729743443741</v>
+        <v>-0.4326965979299264</v>
       </c>
       <c r="H87">
-        <v>0.1435230761405124</v>
+        <v>0.1642490337702971</v>
       </c>
       <c r="I87">
-        <v>0.5781731346079848</v>
+        <v>-1.165298401393578</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-1.21536068712779</v>
+        <v>-2.507038630877107</v>
       </c>
       <c r="F88">
-        <v>0.5309361900232683</v>
+        <v>-0.8589782538300548</v>
       </c>
       <c r="G88">
-        <v>-0.4413344611392941</v>
+        <v>-0.6710165752478724</v>
       </c>
       <c r="H88">
-        <v>0.02343828442922213</v>
+        <v>0.2541332789429268</v>
       </c>
       <c r="I88">
-        <v>-0.7974645104177175</v>
+        <v>-2.090155334572161</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-1.516292281821854</v>
+        <v>-2.629128237947298</v>
       </c>
       <c r="F89">
-        <v>-0.7927499929663057</v>
+        <v>-2.389065822621716</v>
       </c>
       <c r="G89">
-        <v>-0.388192966708367</v>
+        <v>-0.117563065932944</v>
       </c>
       <c r="H89">
-        <v>0.1119318450544428</v>
+        <v>-0.1580530711298793</v>
       </c>
       <c r="I89">
-        <v>-1.24003116016793</v>
+        <v>-2.353512100884474</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-1.928824926219217</v>
+        <v>-1.956733699494239</v>
       </c>
       <c r="F90">
-        <v>-1.087838664691184</v>
+        <v>-2.131661633467961</v>
       </c>
       <c r="G90">
-        <v>0.1340162546123547</v>
+        <v>-0.1571543546386199</v>
       </c>
       <c r="H90">
-        <v>-0.255788189839826</v>
+        <v>0.03569302105791163</v>
       </c>
       <c r="I90">
-        <v>-1.807052990991745</v>
+        <v>-1.835272365913531</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-0.423142510523442</v>
+        <v>-0.9045442421047006</v>
       </c>
       <c r="F91">
-        <v>-1.270905101423076</v>
+        <v>-1.999361202605835</v>
       </c>
       <c r="G91">
-        <v>0.1485459750704547</v>
+        <v>-0.148166807756484</v>
       </c>
       <c r="H91">
-        <v>-0.2054918325066737</v>
+        <v>0.09133680375806208</v>
       </c>
       <c r="I91">
-        <v>-0.3661966530872229</v>
+        <v>-0.8477142381062788</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-1.008438099083801</v>
+        <v>-1.885922592945795</v>
       </c>
       <c r="F92">
-        <v>-1.219174454412078</v>
+        <v>-1.844082193123007</v>
       </c>
       <c r="G92">
-        <v>0.1434629256086545</v>
+        <v>-0.04498415407605297</v>
       </c>
       <c r="H92">
-        <v>-0.2009232296975907</v>
+        <v>-0.01235806542162986</v>
       </c>
       <c r="I92">
-        <v>-0.9509777949948648</v>
+        <v>-1.828580373448112</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0.3657705776902921</v>
+        <v>-0.583884612145347</v>
       </c>
       <c r="F93">
-        <v>-0.7486587395340417</v>
+        <v>-1.332771286672519</v>
       </c>
       <c r="G93">
-        <v>0.1721890068410809</v>
+        <v>-0.0217634055200784</v>
       </c>
       <c r="H93">
-        <v>-0.2678034770716344</v>
+        <v>-0.07352568816414681</v>
       </c>
       <c r="I93">
-        <v>0.4613850479208457</v>
+        <v>-0.4885955184611218</v>
       </c>
     </row>
   </sheetData>
